--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvboey\Documents\Python\GitHub\ML4Credit\IRB models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F4A218F-115B-41C7-BCF7-98995CD05C3C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97FFC053-016B-4FA2-86D4-D4CCCACD2909}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="RejectStats" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Data Model Inputs" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="DataModel" sheetId="17" r:id="rId6"/>
-    <sheet name="Data Fact Sheet" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="New structure" sheetId="18" r:id="rId7"/>
+    <sheet name="Data Fact Sheet" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">browseNotes!$A$1:$B$89</definedName>
@@ -177,8 +178,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Brent Oeyen</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{FA08E51A-80FB-4BF1-AFFC-62D57BC6A26C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Brent Oeyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As a flag in the data model</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="642">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2117,12 +2152,42 @@
     <t>df["CCF_realised"]                        = np.maximum(0, 1 - pd.to_numeric(df['all_util'])/100)
         df.CCF_realised[df.all_util.isnull()]     = np.maximum(0, df.EAD[df.all_util.isnull()] / (df.installment[df.all_util.isnull()] * df.term[df.all_util.isnull()]))</t>
   </si>
+  <si>
+    <t>Input variables</t>
+  </si>
+  <si>
+    <t>Parameter model output</t>
+  </si>
+  <si>
+    <t>Realised IRB parameter</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>Characteristics (model ID, number of observations, exposures, etc.)</t>
+  </si>
+  <si>
+    <t>Calculated variables</t>
+  </si>
+  <si>
+    <t>Test outputs, e.g. AUC</t>
+  </si>
+  <si>
+    <t>Output variables</t>
+  </si>
+  <si>
+    <t>Values passed from Python to GUI</t>
+  </si>
+  <si>
+    <t>Values passed from Python to excel, indicate relevant template (PD, LGD and CCF)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2332,6 +2397,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -6163,9 +6241,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10014,12 +10092,89 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{3543C8D8-8E5A-43EF-B367-88AF91E09F1E}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"{""a"",""b""}"</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"{""a"",""b""}"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B327152-0643-4B2B-8303-EB845401822F}">
+  <dimension ref="B4:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D25"/>
@@ -10313,70 +10468,87 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10721,112 +10893,91 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10848,22 +10999,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -27,6 +27,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Data Catalogue'!$A$1:$P$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
@@ -218,7 +219,7 @@
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +227,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander Vandevenne:</t>
         </r>
@@ -235,14 +236,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Name in Python code</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander Vandevenne:</t>
         </r>
@@ -259,59 +260,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Source documents are the reporting template glossaries and the "instructions for validation reporting on internal models for credit risk". If available the definition within the glossaries is adopted. Alternatively, the definition is specified as close as possible to the description in the regulatory instructions. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Used in the context of which parameter?
-General: data preparation, or for all parameters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Has to be reported? Y:R; N:NR</t>
         </r>
       </text>
     </comment>
@@ -323,7 +275,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander Vandevenne:</t>
         </r>
@@ -332,58 +284,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Reported in PD template (1/0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Reported in LGD template 1/0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Reported in CCF template (1/0)</t>
+Used in the context of which parameter?
+General: data preparation, or for all parameters</t>
         </r>
       </text>
     </comment>
@@ -395,7 +300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander Vandevenne:</t>
         </r>
@@ -404,14 +309,110 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Has to be reported? Y:R; N:NR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reported in PD template (1/0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reported in LGD template 1/0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reported in CCF template (1/0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Implemented/To Implement/Other</t>
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="H23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="772">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2510,9 +2511,6 @@
     <t>Defined in PD_tests().herfindahl()</t>
   </si>
   <si>
-    <t>(development_set.installment * development_set.term).astype(float)</t>
-  </si>
-  <si>
     <t>original_exposure</t>
   </si>
   <si>
@@ -2625,13 +2623,190 @@
   </si>
   <si>
     <t>E_i</t>
+  </si>
+  <si>
+    <t>jeffrey_test</t>
+  </si>
+  <si>
+    <t>Statistical one-sided test to compare forecasted defaults to actual defaults in a binomial model. H0: PD&gt;ADF</t>
+  </si>
+  <si>
+    <t>ldate</t>
+  </si>
+  <si>
+    <t>Initial validation period</t>
+  </si>
+  <si>
+    <t>Generalized AUC</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Generalized AUC for CCF</t>
+  </si>
+  <si>
+    <t>Generalized AUC for LGD</t>
+  </si>
+  <si>
+    <t>gAUC_CCF</t>
+  </si>
+  <si>
+    <t>gAUC</t>
+  </si>
+  <si>
+    <t>gAUC_LGD</t>
+  </si>
+  <si>
+    <t>mon_LGD_transition_matrix</t>
+  </si>
+  <si>
+    <t>dev_LGD_transition_matrix</t>
+  </si>
+  <si>
+    <t>Implemented, note that a function is now created to produce transition matrices -&gt; update</t>
+  </si>
+  <si>
+    <t>LGD transition matrix for the monitoring period</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>create_data_set</t>
+  </si>
+  <si>
+    <t>Validation_tests</t>
+  </si>
+  <si>
+    <t>Run_reporting_tool</t>
+  </si>
+  <si>
+    <t>grade_num</t>
+  </si>
+  <si>
+    <t>Bin_LGD</t>
+  </si>
+  <si>
+    <t>development_set</t>
+  </si>
+  <si>
+    <t>.CCF_tests.gAUC_CCF</t>
+  </si>
+  <si>
+    <t>.gAUC</t>
+  </si>
+  <si>
+    <t>.LGD_tests.gAUC_LGD</t>
+  </si>
+  <si>
+    <t>Observation period data sample</t>
+  </si>
+  <si>
+    <t>Initial validation period sample</t>
+  </si>
+  <si>
+    <t>Number of customers in rating grade i</t>
+  </si>
+  <si>
+    <t>End date of validation period</t>
+  </si>
+  <si>
+    <t>Start date of validation period</t>
+  </si>
+  <si>
+    <t>Cut-off date between validation and observation samples</t>
+  </si>
+  <si>
+    <t>Dataframe</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>.model.binning_monotonic; .model.binning_monotonic.mono_bin</t>
+  </si>
+  <si>
+    <t>dependents</t>
+  </si>
+  <si>
+    <t>precendents</t>
+  </si>
+  <si>
+    <t>.model.LGD_model</t>
+  </si>
+  <si>
+    <t>modeled loss given default</t>
+  </si>
+  <si>
+    <t>realised loss given default</t>
+  </si>
+  <si>
+    <t>modeled LGD segment</t>
+  </si>
+  <si>
+    <t>Income2TB_scaled</t>
+  </si>
+  <si>
+    <t>inq_last_6mths_scaled</t>
+  </si>
+  <si>
+    <t>int_rate_scaled</t>
+  </si>
+  <si>
+    <t>emp_length_num</t>
+  </si>
+  <si>
+    <t>addr_state_num</t>
+  </si>
+  <si>
+    <t>purpose_num</t>
+  </si>
+  <si>
+    <t>home_ownership_num</t>
+  </si>
+  <si>
+    <t>funded_amnt_scaled</t>
+  </si>
+  <si>
+    <t>Numeric rating grade indicator</t>
+  </si>
+  <si>
+    <t>Numeric home ownership indicator</t>
+  </si>
+  <si>
+    <t>Numeric purpose indicator</t>
+  </si>
+  <si>
+    <t>Numeric address indicator</t>
+  </si>
+  <si>
+    <t>local_dr</t>
+  </si>
+  <si>
+    <t>local directory storing python scripts</t>
+  </si>
+  <si>
+    <t>local_dr2</t>
+  </si>
+  <si>
+    <t>local directory output python results in provided excel templates</t>
+  </si>
+  <si>
+    <t>Numeric indicator for employment length</t>
+  </si>
+  <si>
+    <t>Scaled amount lend</t>
+  </si>
+  <si>
+    <t>Scaled interest rate on the facility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2841,19 +3016,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="41">
@@ -3080,7 +3242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3564,7 +3726,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3679,6 +3841,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3727,59 +3933,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3871,7 +4031,22 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4238,14 +4413,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1661160" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4391,7 +4566,7 @@
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>|</m:t>
                       </m:r>
@@ -4400,15 +4575,15 @@
                           <m:sty m:val="p"/>
                         </m:rPr>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>i</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>-1|</m:t>
+                        <m:t>−1|</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="1">
@@ -4465,7 +4640,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4508,16 +4683,13 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                         <m:t>𝑖</m:t>
                       </m:r>
                       <m:r>
-                        <m:rPr>
-                          <m:brk m:alnAt="25"/>
-                        </m:rPr>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
@@ -4535,7 +4707,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4611,7 +4783,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4828,14 +5000,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1661160" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4975,7 +5147,7 @@
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>|</m:t>
                       </m:r>
@@ -4984,15 +5156,15 @@
                           <m:sty m:val="p"/>
                         </m:rPr>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                         <m:t>i</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="0">
-                          <a:latin typeface="+mj-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>-1|</m:t>
+                        <m:t>−1|</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="nl-BE" sz="1100" b="0" i="1">
@@ -5049,7 +5221,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5081,19 +5253,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="nl-BE" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
+                        <m:t>=1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -5177,7 +5337,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5370,14 +5530,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143005" cy="365613"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5419,6 +5579,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5531,7 +5692,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5544,7 +5705,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5576,7 +5737,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5658,14 +5819,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1114023" cy="365613"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5707,6 +5868,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5819,7 +5981,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5864,7 +6026,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -8485,7 +8647,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8538,1067 +8700,1067 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="77" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77">
+    <row r="2" spans="1:11" s="60" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="61" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="62" t="s">
         <v>613</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83">
+    <row r="3" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83">
+    <row r="4" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83">
+    <row r="5" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77">
+    <row r="6" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77">
+    <row r="7" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77">
+    <row r="8" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E8" s="80" t="str">
+      <c r="E8" s="63" t="str">
         <f>LoanStats!A35</f>
         <v>member_id</v>
       </c>
-      <c r="F8" s="80" t="str">
+      <c r="F8" s="63" t="str">
         <f>LoanStats!B35</f>
         <v>A unique LC assigned Id for the borrower member.</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83">
+    <row r="9" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66">
         <v>8</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83">
+    <row r="10" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66">
         <v>9</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83">
+    <row r="11" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66">
         <v>11</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-    </row>
-    <row r="12" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
         <v>14</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81" t="s">
+      <c r="I12" s="64"/>
+      <c r="J12" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77">
+    <row r="13" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60">
         <v>15</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="72" t="s">
         <v>608</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="60" t="s">
         <v>610</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="63" t="s">
         <v>611</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83">
+    <row r="14" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66">
         <v>16</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87" t="s">
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K14" s="70" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77">
+    <row r="15" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60">
         <v>17</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="80" t="str">
+      <c r="E15" s="63" t="str">
         <f>LoanStats!A41</f>
         <v>out_prncp</v>
       </c>
-      <c r="F15" s="80" t="str">
+      <c r="F15" s="63" t="str">
         <f>LoanStats!B41</f>
         <v>Remaining outstanding principal for total amount funded</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81" t="s">
+      <c r="I15" s="64"/>
+      <c r="J15" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92">
+    <row r="16" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75">
         <v>19</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="E16" s="93" t="str">
+      <c r="E16" s="76" t="str">
         <f>LoanStats!A41</f>
         <v>out_prncp</v>
       </c>
-      <c r="F16" s="93" t="str">
+      <c r="F16" s="76" t="str">
         <f>LoanStats!B41</f>
         <v>Remaining outstanding principal for total amount funded</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88" t="s">
+      <c r="I16" s="71"/>
+      <c r="J16" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="K16" s="88" t="s">
+      <c r="K16" s="71" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77">
+    <row r="17" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60">
         <v>20</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="60" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83">
+    <row r="18" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="66">
         <v>21</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83">
+    <row r="19" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66">
         <v>22</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87" t="s">
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77">
+    <row r="20" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60">
         <v>23</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="60" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83">
+    <row r="21" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66">
         <v>24</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83">
+    <row r="22" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="66">
         <v>25</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77">
+    <row r="23" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60">
         <v>26</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77">
+    <row r="24" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="60">
         <v>27</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K24" s="77" t="s">
+      <c r="K24" s="60" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
+    <row r="25" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60">
         <v>28</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K25" s="77" t="s">
+      <c r="K25" s="60" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77">
+    <row r="26" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60">
         <v>29</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E26" s="80" t="str">
+      <c r="E26" s="63" t="str">
         <f>LoanStats!A33</f>
         <v>loan_amnt</v>
       </c>
-      <c r="F26" s="80" t="str">
+      <c r="F26" s="63" t="str">
         <f>LoanStats!B33</f>
         <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81" t="s">
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83">
+    <row r="27" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66">
         <v>30</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="71" t="s">
         <v>426</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87" t="s">
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83">
+    <row r="28" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66">
         <v>31</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87" t="s">
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83">
+    <row r="29" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66">
         <v>32</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87" t="s">
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="66" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77">
+    <row r="30" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="60">
         <v>33</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="62" t="s">
         <v>433</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="F30" s="80" t="str">
+      <c r="F30" s="63" t="str">
         <f>browseNotes!B25</f>
         <v>The expected default rate of the loan.</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81" t="s">
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77">
+    <row r="31" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60">
         <v>34</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K31" s="77" t="s">
+      <c r="K31" s="60" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77">
+    <row r="32" spans="1:11" s="60" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60">
         <v>35</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81" t="s">
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K32" s="77" t="s">
+      <c r="K32" s="60" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83">
+    <row r="33" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="66">
         <v>36</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87" t="s">
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="79" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77">
+    <row r="34" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="60">
         <v>37</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K34" s="98" t="s">
+      <c r="K34" s="81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83">
+    <row r="35" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="66">
         <v>38</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="67" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87" t="s">
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K35" s="96" t="s">
+      <c r="K35" s="79" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77">
+    <row r="36" spans="1:11" s="60" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="60">
         <v>39</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K36" s="98" t="s">
+      <c r="K36" s="81" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77">
+    <row r="37" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="60">
         <v>40</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81" t="s">
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K37" s="77" t="s">
+      <c r="K37" s="60" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77">
+    <row r="38" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60">
         <v>41</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="61" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="62" t="s">
         <v>452</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80" t="s">
+      <c r="E38" s="63"/>
+      <c r="F38" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81" t="s">
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K38" s="77" t="s">
+      <c r="K38" s="60" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77">
+    <row r="39" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60">
         <v>42</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="G39" s="80" t="s">
+      <c r="G39" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81" t="s">
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K39" s="77" t="s">
+      <c r="K39" s="60" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77">
+    <row r="40" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60">
         <v>43</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80" t="s">
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H40" s="80"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81" t="s">
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="60" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77">
+    <row r="41" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="60">
         <v>44</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80" t="s">
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81" t="s">
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="K41" s="77" t="s">
+      <c r="K41" s="60" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10507,7 +10669,7 @@
       <c r="B84" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="59" t="s">
         <v>519</v>
       </c>
       <c r="D84" s="30" t="s">
@@ -12324,1283 +12486,2318 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="17.88671875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="54"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="98" customWidth="1"/>
+    <col min="3" max="4" width="19.109375" style="54" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="17.88671875" style="54" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="H1" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="I1" s="56" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="J1" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="K1" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="L1" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="M1" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="N1" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="O1" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="P1" s="58" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="1:17" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="99" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="98" t="s">
+        <v>743</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="M2" s="54">
+        <v>1</v>
+      </c>
+      <c r="N2" s="54">
+        <v>1</v>
+      </c>
+      <c r="O2" s="54">
+        <v>1</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="99"/>
+      <c r="B3" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M3" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="99"/>
+      <c r="B4" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M4" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="99" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="H5" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q6" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="98" t="s">
+        <v>716</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="99" t="s">
+        <v>765</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="99" t="s">
+        <v>767</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="101" t="s">
+        <v>734</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>739</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="99" t="s">
+        <v>655</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M13" s="54">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>653</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M15" s="54">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="99" t="s">
+        <v>648</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M16" s="54">
+        <v>1</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="99" t="s">
+        <v>649</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M17" s="54">
+        <v>1</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="99" t="s">
+        <v>687</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M18" s="54">
+        <v>1</v>
+      </c>
+      <c r="N18" s="54">
+        <v>0</v>
+      </c>
+      <c r="O18" s="54">
+        <v>0</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A19" s="99" t="s">
+        <v>688</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>679</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="M19" s="54">
+        <v>1</v>
+      </c>
+      <c r="N19" s="54">
+        <v>0</v>
+      </c>
+      <c r="O19" s="54">
+        <v>0</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>652</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>663</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M20" s="54">
+        <v>1</v>
+      </c>
+      <c r="N20" s="54">
+        <v>0</v>
+      </c>
+      <c r="O20" s="54">
+        <v>0</v>
+      </c>
+      <c r="P20" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>606</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>655</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="99" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q22" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="99" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="99" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L24" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M24" s="54">
+        <v>1</v>
+      </c>
+      <c r="N24" s="54">
+        <v>0</v>
+      </c>
+      <c r="O24" s="54">
+        <v>0</v>
+      </c>
+      <c r="P24" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q24" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="99" t="s">
+        <v>672</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>670</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M25" s="54">
+        <v>1</v>
+      </c>
+      <c r="N25" s="54">
+        <v>0</v>
+      </c>
+      <c r="O25" s="54">
+        <v>0</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="98" t="s">
+        <v>669</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M26" s="54">
+        <v>1</v>
+      </c>
+      <c r="N26" s="54">
+        <v>0</v>
+      </c>
+      <c r="O26" s="54">
+        <v>0</v>
+      </c>
+      <c r="P26" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q26" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="99" t="s">
+        <v>666</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K28" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="99" t="s">
+        <v>691</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>740</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M29" s="54">
+        <v>1</v>
+      </c>
+      <c r="P29" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q29" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="99" t="s">
+        <v>664</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="99" t="s">
+        <v>712</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>711</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="I31" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q31" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>709</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="54" t="s">
         <v>644</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="I32" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K32" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q32" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="99"/>
+      <c r="B33" s="77" t="s">
+        <v>710</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q33" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K34" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M34" s="54">
+        <v>1</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q34" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="G35" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M35" s="54">
+        <v>1</v>
+      </c>
+      <c r="P35" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="99"/>
+      <c r="B36" s="98" t="s">
+        <v>677</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="M36" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="99"/>
+      <c r="B37" s="98" t="s">
+        <v>382</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K37" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q37" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="99"/>
+      <c r="B38" s="98" t="s">
+        <v>678</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q38" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="101" t="s">
+        <v>681</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>738</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="I39" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="J39" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="K39" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="L39" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="I2" s="54">
+      <c r="M39" s="54">
         <v>1</v>
       </c>
-      <c r="J2" s="54">
+      <c r="N39" s="54">
         <v>1</v>
       </c>
-      <c r="K2" s="54">
+      <c r="O39" s="54">
         <v>1</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="P39" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q39" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="99"/>
+      <c r="B40" s="98" t="s">
+        <v>444</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q40" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="99" t="s">
+        <v>701</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q41" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="99"/>
+      <c r="B42" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q42" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="99"/>
+      <c r="B43" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K43" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q43" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="99"/>
+      <c r="B44" s="98" t="s">
+        <v>686</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K44" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q44" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="99"/>
+      <c r="B45" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K45" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L45" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M45" s="54">
+        <v>1</v>
+      </c>
+      <c r="P45" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q45" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="99"/>
+      <c r="B46" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K46" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L46" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M46" s="54">
+        <v>1</v>
+      </c>
+      <c r="N46" s="54">
+        <v>0</v>
+      </c>
+      <c r="O46" s="54">
+        <v>0</v>
+      </c>
+      <c r="P46" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q46" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="99"/>
+      <c r="B47" s="98" t="s">
+        <v>707</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M47" s="54">
+        <v>1</v>
+      </c>
+      <c r="N47" s="54">
+        <v>0</v>
+      </c>
+      <c r="O47" s="54">
+        <v>0</v>
+      </c>
+      <c r="P47" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q47" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="99" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J48" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M48" s="54">
+        <v>1</v>
+      </c>
+      <c r="N48" s="54">
+        <v>0</v>
+      </c>
+      <c r="O48" s="54">
+        <v>0</v>
+      </c>
+      <c r="P48" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q48" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="99" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M49" s="54">
+        <v>1</v>
+      </c>
+      <c r="N49" s="54">
+        <v>0</v>
+      </c>
+      <c r="O49" s="54">
+        <v>0</v>
+      </c>
+      <c r="P49" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q49" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K50" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L50" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M50" s="54">
+        <v>0</v>
+      </c>
+      <c r="N50" s="54">
+        <v>0</v>
+      </c>
+      <c r="O50" s="54">
+        <v>0</v>
+      </c>
+      <c r="P50" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="B51" s="98" t="s">
+        <v>700</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K51" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M51" s="54">
+        <v>0</v>
+      </c>
+      <c r="N51" s="54">
+        <v>0</v>
+      </c>
+      <c r="O51" s="54">
+        <v>0</v>
+      </c>
+      <c r="P51" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q51" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="99" t="s">
+        <v>694</v>
+      </c>
+      <c r="B52" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>695</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K52" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L52" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M52" s="54">
+        <v>0</v>
+      </c>
+      <c r="N52" s="54">
+        <v>0</v>
+      </c>
+      <c r="O52" s="54">
+        <v>0</v>
+      </c>
+      <c r="P52" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q52" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="99" t="s">
+        <v>713</v>
+      </c>
+      <c r="B53" s="98" t="s">
         <v>705</v>
       </c>
-      <c r="M2" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="C53" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>714</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K53" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L53" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M53" s="54">
+        <v>1</v>
+      </c>
+      <c r="N53" s="54">
+        <v>0</v>
+      </c>
+      <c r="O53" s="54">
+        <v>0</v>
+      </c>
+      <c r="P53" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q53" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="101" t="s">
+        <v>732</v>
+      </c>
+      <c r="B54" s="98" t="s">
+        <v>761</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I54" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="J54" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="K54" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M54" s="54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="54">
+        <v>0</v>
+      </c>
+      <c r="P54" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q54" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="102" t="s">
+        <v>759</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>762</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J55" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M55" s="54">
+        <v>0</v>
+      </c>
+      <c r="N55" s="54">
+        <v>0</v>
+      </c>
+      <c r="O55" s="54">
+        <v>0</v>
+      </c>
+      <c r="P55" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="101" t="s">
+        <v>758</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>763</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M56" s="54">
+        <v>0</v>
+      </c>
+      <c r="N56" s="54">
+        <v>0</v>
+      </c>
+      <c r="O56" s="54">
+        <v>0</v>
+      </c>
+      <c r="P56" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="B57" s="98" t="s">
+        <v>764</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J57" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M57" s="54">
+        <v>0</v>
+      </c>
+      <c r="N57" s="54">
+        <v>0</v>
+      </c>
+      <c r="O57" s="54">
+        <v>0</v>
+      </c>
+      <c r="P57" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="101" t="s">
+        <v>756</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>769</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M58" s="54">
+        <v>0</v>
+      </c>
+      <c r="N58" s="54">
+        <v>0</v>
+      </c>
+      <c r="O58" s="54">
+        <v>0</v>
+      </c>
+      <c r="P58" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="101" t="s">
+        <v>760</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>770</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J59" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K59" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L59" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M59" s="54">
+        <v>0</v>
+      </c>
+      <c r="N59" s="54">
+        <v>0</v>
+      </c>
+      <c r="O59" s="54">
+        <v>0</v>
+      </c>
+      <c r="P59" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="M3" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="54" t="s">
+    </row>
+    <row r="60" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="101" t="s">
+        <v>755</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>771</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J60" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K60" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L60" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M60" s="54">
+        <v>0</v>
+      </c>
+      <c r="N60" s="54">
+        <v>0</v>
+      </c>
+      <c r="O60" s="54">
+        <v>0</v>
+      </c>
+      <c r="P60" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="102" t="s">
+        <v>754</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I61" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J61" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K61" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L61" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M61" s="54">
+        <v>0</v>
+      </c>
+      <c r="N61" s="54">
+        <v>0</v>
+      </c>
+      <c r="O61" s="54">
+        <v>0</v>
+      </c>
+      <c r="P61" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="101" t="s">
+        <v>753</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="J62" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="K62" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L62" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M62" s="54">
+        <v>0</v>
+      </c>
+      <c r="N62" s="54">
+        <v>0</v>
+      </c>
+      <c r="O62" s="54">
+        <v>0</v>
+      </c>
+      <c r="P62" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="B63" s="98" t="s">
+        <v>750</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>745</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>749</v>
+      </c>
+      <c r="E63" s="54" t="str">
+        <f>_xlfn.CONCAT(A65)</f>
+        <v>Bin_LGD</v>
+      </c>
+      <c r="F63" s="54" t="str">
+        <f>_xlfn.CONCAT(A64," &amp; ","a list of independent variables")</f>
+        <v>LGD_realised &amp; a list of independent variables</v>
+      </c>
+      <c r="G63" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="54" t="s">
+      <c r="I63" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J63" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K63" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L63" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M63" s="54">
+        <v>0</v>
+      </c>
+      <c r="N63" s="54">
+        <v>0</v>
+      </c>
+      <c r="O63" s="54">
+        <v>0</v>
+      </c>
+      <c r="P63" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q63" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="H4" s="54" t="s">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="101" t="s">
+        <v>624</v>
+      </c>
+      <c r="B64" s="98" t="s">
+        <v>751</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="E64" s="54" t="str">
+        <f>_xlfn.CONCAT(A65)</f>
+        <v>Bin_LGD</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J64" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K64" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L64" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M64" s="54">
+        <v>0</v>
+      </c>
+      <c r="N64" s="54">
+        <v>0</v>
+      </c>
+      <c r="O64" s="54">
+        <v>0</v>
+      </c>
+      <c r="P64" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q64" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="B65" s="98" t="s">
+        <v>752</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>745</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>746</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="F65" s="54" t="str">
+        <f>A64</f>
+        <v>LGD_realised</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K65" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L65" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M65" s="54">
+        <v>0</v>
+      </c>
+      <c r="N65" s="54">
+        <v>0</v>
+      </c>
+      <c r="O65" s="54">
+        <v>0</v>
+      </c>
+      <c r="P65" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q65" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="101" t="s">
+        <v>722</v>
+      </c>
+      <c r="B66" s="98" t="s">
+        <v>717</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>736</v>
+      </c>
+      <c r="E66" s="54" t="str">
+        <f>_xlfn.CONCAT(A67," &amp; ",A70)</f>
+        <v>gAUC_CCF &amp; gAUC_LGD</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="J66" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K66" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L66" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M66" s="54">
+        <v>0</v>
+      </c>
+      <c r="N66" s="54">
+        <v>0</v>
+      </c>
+      <c r="O66" s="54">
+        <v>0</v>
+      </c>
+      <c r="P66" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q66" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="99" t="s">
+        <v>721</v>
+      </c>
+      <c r="B67" s="98" t="s">
+        <v>719</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>735</v>
+      </c>
+      <c r="F67" s="54" t="str">
+        <f>_xlfn.CONCAT(A66)</f>
+        <v>gAUC</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="J67" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L67" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="54" t="s">
-        <v>656</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="54" t="s">
+      <c r="M67" s="54">
+        <v>0</v>
+      </c>
+      <c r="N67" s="54">
+        <v>0</v>
+      </c>
+      <c r="O67" s="54">
+        <v>1</v>
+      </c>
+      <c r="P67" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="M5" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>428</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="Q67" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" s="54" t="s">
+    </row>
+    <row r="68" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>727</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="F68" s="54" t="str">
+        <f>A39</f>
+        <v>monitoring_set</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J68" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K68" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="L68" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M68" s="54">
+        <v>0</v>
+      </c>
+      <c r="N68" s="54">
+        <v>0</v>
+      </c>
+      <c r="O68" s="54">
+        <v>0</v>
+      </c>
+      <c r="P68" s="54" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q68" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="101" t="s">
+        <v>725</v>
+      </c>
+      <c r="B69" s="98" t="s">
+        <v>727</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="F69" s="54" t="str">
+        <f>A11</f>
+        <v>development_set</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J69" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="K69" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L69" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="M69" s="54">
+        <v>0</v>
+      </c>
+      <c r="N69" s="54">
+        <v>0</v>
+      </c>
+      <c r="O69" s="54">
+        <v>0</v>
+      </c>
+      <c r="P69" s="54" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q69" s="54" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="B70" s="98" t="s">
+        <v>720</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="F70" s="54" t="str">
+        <f>A66</f>
+        <v>gAUC</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="K70" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="L70" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="I6" s="54">
+      <c r="M70" s="54">
+        <v>0</v>
+      </c>
+      <c r="N70" s="54">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>648</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="O70" s="54">
+        <v>0</v>
+      </c>
+      <c r="P70" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q70" s="54" t="s">
         <v>655</v>
       </c>
-      <c r="E7" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M7" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>649</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M8" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>688</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>460</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I9" s="54">
-        <v>1</v>
-      </c>
-      <c r="J9" s="54">
-        <v>0</v>
-      </c>
-      <c r="K9" s="54">
-        <v>0</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>457</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="I10" s="54">
-        <v>1</v>
-      </c>
-      <c r="J10" s="54">
-        <v>0</v>
-      </c>
-      <c r="K10" s="54">
-        <v>0</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>663</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I11" s="54">
-        <v>1</v>
-      </c>
-      <c r="J11" s="54">
-        <v>0</v>
-      </c>
-      <c r="K11" s="54">
-        <v>0</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M11" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M12" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
-        <v>607</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>608</v>
-      </c>
-      <c r="D13" t="s">
-        <v>610</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M13" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M14" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>673</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>674</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I15" s="54">
-        <v>1</v>
-      </c>
-      <c r="J15" s="54">
-        <v>0</v>
-      </c>
-      <c r="K15" s="54">
-        <v>0</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M15" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>672</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>673</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>674</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I16" s="54">
-        <v>1</v>
-      </c>
-      <c r="J16" s="54">
-        <v>0</v>
-      </c>
-      <c r="K16" s="54">
-        <v>0</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
-        <v>669</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>673</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I17" s="54">
-        <v>1</v>
-      </c>
-      <c r="J17" s="54">
-        <v>0</v>
-      </c>
-      <c r="K17" s="54">
-        <v>0</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>667</v>
-      </c>
-      <c r="M17" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>666</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>667</v>
-      </c>
-      <c r="M18" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>667</v>
-      </c>
-      <c r="M19" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I20" s="54">
-        <v>1</v>
-      </c>
-      <c r="L20" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="M21" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
-        <v>712</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>713</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="E22" s="54" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
-        <v>710</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>709</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
-        <v>711</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>676</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>675</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I25" s="54">
-        <v>1</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M25" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>677</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I26" s="54">
-        <v>1</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M26" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="I27" s="54">
-        <v>1</v>
-      </c>
-      <c r="M27" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M28" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M29" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>682</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="H30" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I30" s="54">
-        <v>1</v>
-      </c>
-      <c r="J30" s="54">
-        <v>1</v>
-      </c>
-      <c r="K30" s="54">
-        <v>1</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="M30" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M31" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>702</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M32" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M33" s="54" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I36" s="54">
-        <v>1</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="s">
-        <v>707</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I37" s="54">
-        <v>1</v>
-      </c>
-      <c r="J37" s="54">
-        <v>0</v>
-      </c>
-      <c r="K37" s="54">
-        <v>0</v>
-      </c>
-      <c r="L37" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="99" t="s">
-        <v>708</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I38" s="54">
-        <v>1</v>
-      </c>
-      <c r="J38" s="54">
-        <v>0</v>
-      </c>
-      <c r="K38" s="54">
-        <v>0</v>
-      </c>
-      <c r="L38" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I39" s="54">
-        <v>1</v>
-      </c>
-      <c r="J39" s="54">
-        <v>0</v>
-      </c>
-      <c r="K39" s="54">
-        <v>0</v>
-      </c>
-      <c r="L39" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="I40" s="54">
-        <v>1</v>
-      </c>
-      <c r="J40" s="54">
-        <v>0</v>
-      </c>
-      <c r="K40" s="54">
-        <v>0</v>
-      </c>
-      <c r="L40" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>703</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="I41" s="54">
-        <v>0</v>
-      </c>
-      <c r="J41" s="54">
-        <v>0</v>
-      </c>
-      <c r="K41" s="54">
-        <v>0</v>
-      </c>
-      <c r="L41" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="I42" s="54">
-        <v>0</v>
-      </c>
-      <c r="J42" s="54">
-        <v>0</v>
-      </c>
-      <c r="K42" s="54">
-        <v>0</v>
-      </c>
-      <c r="L42" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>696</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>699</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="I43" s="54">
-        <v>0</v>
-      </c>
-      <c r="J43" s="54">
-        <v>0</v>
-      </c>
-      <c r="K43" s="54">
-        <v>0</v>
-      </c>
-      <c r="L43" s="54" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>706</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G5:G1048576">
+  <autoFilter ref="A1:P70"/>
+  <conditionalFormatting sqref="A1:A9 A57:A70 A11:A55">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4 F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4 E5:E1048576">
-      <formula1>"General,PD,LGD,CCF"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4 H5:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"R,NR"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K4 I5:K1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O1048576">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"create_data_set,model,Run_reporting_tool,Validation_tests,export,visualisation_dash"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576">
+      <formula1>"Datetime,Categorical,Numeric,Dataframe"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13630,74 +14827,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="82" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="92" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="95" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="82" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -13757,12 +14954,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="85" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -13904,6 +15101,96 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14248,97 +15535,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14388,12 +15590,35 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14415,46 +15640,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvsven\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvboey\Documents\Python\GitHub\ML4Credit\IRB models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F508E75-2F51-489E-9856-8A8D22AC95EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,10 +21,11 @@
     <sheet name="DataModel" sheetId="17" r:id="rId6"/>
     <sheet name="New structure" sheetId="18" r:id="rId7"/>
     <sheet name="Data Catalogue" sheetId="19" r:id="rId8"/>
-    <sheet name="Data Fact Sheet" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="DataCatalogue" sheetId="20" r:id="rId9"/>
+    <sheet name="Data Fact Sheet" sheetId="12" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">browseNotes!$A$1:$B$89</definedName>
@@ -31,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -180,12 +182,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Brent Oeyen</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +216,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="814">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2801,11 +2803,142 @@
   <si>
     <t>Scaled interest rate on the facility</t>
   </si>
+  <si>
+    <t>Data layer</t>
+  </si>
+  <si>
+    <t>Section 2.6.1(b)</t>
+  </si>
+  <si>
+    <t>Section 2.6.1(a)</t>
+  </si>
+  <si>
+    <t>bin_LGD</t>
+  </si>
+  <si>
+    <t>bin_LGD_realised</t>
+  </si>
+  <si>
+    <t>Section 2.3(c ) with default =1 and performing = 0</t>
+  </si>
+  <si>
+    <t>dev_LGD_transition_matrix_freq</t>
+  </si>
+  <si>
+    <t>mon_LGD_transition_matrix_freq</t>
+  </si>
+  <si>
+    <t>LGD_gAUC_init</t>
+  </si>
+  <si>
+    <t>LGD_gAUC_curr</t>
+  </si>
+  <si>
+    <t>LGD_S</t>
+  </si>
+  <si>
+    <t>LGD_p_val</t>
+  </si>
+  <si>
+    <t>Code ref</t>
+  </si>
+  <si>
+    <t>Section 3.2: Facility pools used by the institution or 12 percentile intervals based on LGD ordered from low to high</t>
+  </si>
+  <si>
+    <t>Section 3.2: Facility pools used by the institution or 12 percentile intervals based on realised LGD  ordered from low to high</t>
+  </si>
+  <si>
+    <t>Section 3.2: referred to as a for the development period</t>
+  </si>
+  <si>
+    <t>Section 3.2: reference a divided by c for the development period</t>
+  </si>
+  <si>
+    <t>Section 3.2: reference a divided by c for the validation period</t>
+  </si>
+  <si>
+    <t>Section 3.2: referred to as a for the validation period</t>
+  </si>
+  <si>
+    <t>Section 3.2: AUC calculated for the development period</t>
+  </si>
+  <si>
+    <t>Section 3.2: AUC calculated for the validation period</t>
+  </si>
+  <si>
+    <t>Section 3.2: P-value test statistic of AUC for the validation period</t>
+  </si>
+  <si>
+    <t>Type variable</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Regulatory ref</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: D7</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: E7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: F7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: G7</t>
+  </si>
+  <si>
+    <t>Section 3.2: Test statistic of the AUC calculated for the validation period</t>
+  </si>
+  <si>
+    <t>LGD_s</t>
+  </si>
+  <si>
+    <t>Section 3.2: Variance</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: H7</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Script calc</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>LGD_tests</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>matrix_obs</t>
+  </si>
+  <si>
+    <t>matrix_prob</t>
+  </si>
+  <si>
+    <t>LGD_toExcel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3726,7 +3859,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3885,6 +4018,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3933,13 +4073,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4699,19 +4833,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>+</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="nl-BE" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
+                        <m:t>+1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -6458,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7119,7 +7241,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57">
+  <autoFilter ref="A1:B57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:B61">
       <sortCondition ref="A1:A61"/>
     </sortState>
@@ -7137,8 +7259,301 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="90" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+          <x14:formula1>
+            <xm:f>'Z:\FSO Advisory All\2. FSO Advisory _ Solutions\3. Risk\2. Data Quality\1. Conceptual\[DataQuality_Testing_Conceptual.xlsb]Lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12:D13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -7157,7 +7572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B109"/>
   <sheetViews>
@@ -8035,7 +8450,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B89">
+  <autoFilter ref="A1:B89" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState ref="A2:B93">
       <sortCondition ref="A1:A93"/>
     </sortState>
@@ -8054,7 +8469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -8152,7 +8567,7 @@
       <c r="B12" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10"/>
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -8165,7 +8580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
@@ -8641,12 +9056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K247"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -12403,7 +12818,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"{""a"",""b""}"</x12ac:list>
@@ -12421,11 +12836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12436,7 +12851,15 @@
     <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>630</v>
       </c>
@@ -12444,37 +12867,45 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
         <v>635</v>
       </c>
       <c r="C9" t="s">
         <v>636</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>637</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12485,18 +12916,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="82" customWidth="1"/>
     <col min="3" max="4" width="19.109375" style="54" customWidth="1"/>
     <col min="5" max="6" width="15.33203125" style="54" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" style="54" customWidth="1"/>
@@ -12561,10 +12992,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="82" t="s">
         <v>743</v>
       </c>
       <c r="I2" s="54" t="s">
@@ -12593,8 +13024,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="82" t="s">
         <v>742</v>
       </c>
       <c r="I3" s="54" t="s">
@@ -12617,8 +13048,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="82" t="s">
         <v>741</v>
       </c>
       <c r="I4" s="54" t="s">
@@ -12641,10 +13072,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="83" t="s">
         <v>715</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="82" t="s">
         <v>311</v>
       </c>
       <c r="G5" s="54" t="s">
@@ -12667,8 +13098,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="82" t="s">
         <v>312</v>
       </c>
       <c r="I6" s="54" t="s">
@@ -12685,8 +13116,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="82" t="s">
         <v>441</v>
       </c>
       <c r="I7" s="54" t="s">
@@ -12703,8 +13134,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="82" t="s">
         <v>716</v>
       </c>
       <c r="I8" s="54" t="s">
@@ -12721,26 +13152,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="82" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="83" t="s">
         <v>767</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="82" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="85" t="s">
         <v>734</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="82" t="s">
         <v>739</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -12760,10 +13191,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="82" t="s">
         <v>378</v>
       </c>
       <c r="G12" s="46" t="s">
@@ -12786,7 +13217,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="83" t="s">
         <v>655</v>
       </c>
       <c r="B13" s="77" t="s">
@@ -12815,10 +13246,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="82" t="s">
         <v>653</v>
       </c>
       <c r="G14" s="46"/>
@@ -12842,7 +13273,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="77" t="s">
         <v>427</v>
       </c>
@@ -12872,10 +13303,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="83" t="s">
         <v>648</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="82" t="s">
         <v>409</v>
       </c>
       <c r="G16" s="46" t="s">
@@ -12907,10 +13338,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="83" t="s">
         <v>649</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="82" t="s">
         <v>372</v>
       </c>
       <c r="G17" s="46" t="s">
@@ -12942,10 +13373,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="83" t="s">
         <v>687</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="82" t="s">
         <v>680</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -12983,10 +13414,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="83" t="s">
         <v>688</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="82" t="s">
         <v>679</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -13021,10 +13452,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="82" t="s">
         <v>652</v>
       </c>
       <c r="H20" s="54" t="s">
@@ -13059,10 +13490,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="82" t="s">
         <v>606</v>
       </c>
       <c r="G21" s="65" t="s">
@@ -13088,7 +13519,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="83" t="s">
         <v>609</v>
       </c>
       <c r="B22" s="77" t="s">
@@ -13117,7 +13548,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="83" t="s">
         <v>621</v>
       </c>
       <c r="B23" s="77" t="s">
@@ -13146,10 +13577,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="82" t="s">
         <v>668</v>
       </c>
       <c r="C24" s="54" t="s">
@@ -13190,10 +13621,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="82" t="s">
         <v>670</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -13234,8 +13665,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="82" t="s">
         <v>669</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -13270,7 +13701,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="83" t="s">
         <v>666</v>
       </c>
       <c r="B27" s="77" t="s">
@@ -13299,7 +13730,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="83" t="s">
         <v>366</v>
       </c>
       <c r="B28" s="77" t="s">
@@ -13328,7 +13759,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="83" t="s">
         <v>691</v>
       </c>
       <c r="B29" s="77" t="s">
@@ -13363,7 +13794,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="83" t="s">
         <v>664</v>
       </c>
       <c r="B30" s="77" t="s">
@@ -13392,7 +13823,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="83" t="s">
         <v>712</v>
       </c>
       <c r="B31" s="77" t="s">
@@ -13413,7 +13844,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="83" t="s">
         <v>708</v>
       </c>
       <c r="B32" s="77" t="s">
@@ -13440,7 +13871,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="77" t="s">
         <v>710</v>
       </c>
@@ -13462,10 +13893,10 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="83" t="s">
         <v>675</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="82" t="s">
         <v>423</v>
       </c>
       <c r="G34" s="54" t="s">
@@ -13497,7 +13928,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="84" t="s">
         <v>365</v>
       </c>
       <c r="B35" s="77" t="s">
@@ -13534,8 +13965,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="82" t="s">
         <v>677</v>
       </c>
       <c r="I36" s="54" t="s">
@@ -13555,8 +13986,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="98" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="82" t="s">
         <v>382</v>
       </c>
       <c r="I37" s="54" t="s">
@@ -13573,8 +14004,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
-      <c r="B38" s="98" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="82" t="s">
         <v>678</v>
       </c>
       <c r="I38" s="54" t="s">
@@ -13591,10 +14022,10 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="85" t="s">
         <v>681</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="82" t="s">
         <v>738</v>
       </c>
       <c r="C39" s="54" t="s">
@@ -13635,8 +14066,8 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="98" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="82" t="s">
         <v>444</v>
       </c>
       <c r="G40" s="54" t="s">
@@ -13659,10 +14090,10 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="83" t="s">
         <v>701</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="82" t="s">
         <v>683</v>
       </c>
       <c r="I41" s="54" t="s">
@@ -13679,8 +14110,8 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="98" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="82" t="s">
         <v>684</v>
       </c>
       <c r="I42" s="54" t="s">
@@ -13694,8 +14125,8 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="82" t="s">
         <v>685</v>
       </c>
       <c r="I43" s="54" t="s">
@@ -13712,8 +14143,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="98" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="82" t="s">
         <v>686</v>
       </c>
       <c r="I44" s="54" t="s">
@@ -13730,8 +14161,8 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="98" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="82" t="s">
         <v>449</v>
       </c>
       <c r="G45" s="54" t="s">
@@ -13763,8 +14194,8 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="98" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="82" t="s">
         <v>706</v>
       </c>
       <c r="C46" s="54" t="s">
@@ -13799,8 +14230,8 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="82" t="s">
         <v>707</v>
       </c>
       <c r="C47" s="54" t="s">
@@ -13835,10 +14266,10 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="82" t="s">
         <v>689</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -13873,10 +14304,10 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="82" t="s">
         <v>690</v>
       </c>
       <c r="C49" s="54" t="s">
@@ -13911,10 +14342,10 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="83" t="s">
         <v>702</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="82" t="s">
         <v>699</v>
       </c>
       <c r="C50" s="54" t="s">
@@ -13952,10 +14383,10 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="83" t="s">
         <v>703</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="82" t="s">
         <v>700</v>
       </c>
       <c r="C51" s="54" t="s">
@@ -13993,10 +14424,10 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="83" t="s">
         <v>694</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="82" t="s">
         <v>693</v>
       </c>
       <c r="G52" s="54" t="s">
@@ -14034,10 +14465,10 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="83" t="s">
         <v>713</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="82" t="s">
         <v>705</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -14078,10 +14509,10 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="85" t="s">
         <v>732</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="82" t="s">
         <v>761</v>
       </c>
       <c r="C54" s="54" t="s">
@@ -14116,10 +14547,10 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="86" t="s">
         <v>759</v>
       </c>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="82" t="s">
         <v>762</v>
       </c>
       <c r="C55" s="54" t="s">
@@ -14151,10 +14582,10 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="85" t="s">
         <v>758</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="82" t="s">
         <v>763</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -14186,10 +14617,10 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="85" t="s">
         <v>757</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="82" t="s">
         <v>764</v>
       </c>
       <c r="C57" s="54" t="s">
@@ -14221,10 +14652,10 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="85" t="s">
         <v>756</v>
       </c>
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="82" t="s">
         <v>769</v>
       </c>
       <c r="C58" s="54" t="s">
@@ -14256,10 +14687,10 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="85" t="s">
         <v>760</v>
       </c>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="82" t="s">
         <v>770</v>
       </c>
       <c r="C59" s="54" t="s">
@@ -14291,10 +14722,10 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="85" t="s">
         <v>755</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="82" t="s">
         <v>771</v>
       </c>
       <c r="C60" s="54" t="s">
@@ -14326,7 +14757,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="86" t="s">
         <v>754</v>
       </c>
       <c r="C61" s="54" t="s">
@@ -14358,7 +14789,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="85" t="s">
         <v>753</v>
       </c>
       <c r="C62" s="54" t="s">
@@ -14390,10 +14821,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="101" t="s">
+      <c r="A63" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="82" t="s">
         <v>750</v>
       </c>
       <c r="C63" s="54" t="s">
@@ -14442,10 +14873,10 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="85" t="s">
         <v>624</v>
       </c>
-      <c r="B64" s="98" t="s">
+      <c r="B64" s="82" t="s">
         <v>751</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -14484,10 +14915,10 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="85" t="s">
         <v>733</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="82" t="s">
         <v>752</v>
       </c>
       <c r="C65" s="54" t="s">
@@ -14535,10 +14966,10 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="85" t="s">
         <v>722</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="82" t="s">
         <v>717</v>
       </c>
       <c r="C66" s="54" t="s">
@@ -14580,10 +15011,10 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="99" t="s">
+      <c r="A67" s="83" t="s">
         <v>721</v>
       </c>
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="82" t="s">
         <v>719</v>
       </c>
       <c r="C67" s="54" t="s">
@@ -14628,10 +15059,10 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="85" t="s">
         <v>724</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="82" t="s">
         <v>727</v>
       </c>
       <c r="C68" s="54" t="s">
@@ -14673,10 +15104,10 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="85" t="s">
         <v>725</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="82" t="s">
         <v>727</v>
       </c>
       <c r="C69" s="54" t="s">
@@ -14718,10 +15149,10 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="85" t="s">
         <v>723</v>
       </c>
-      <c r="B70" s="98" t="s">
+      <c r="B70" s="82" t="s">
         <v>720</v>
       </c>
       <c r="C70" s="54" t="s">
@@ -14766,7 +15197,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P70"/>
+  <autoFilter ref="A1:P70" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <conditionalFormatting sqref="A1:A9 A57:A70 A11:A55">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
@@ -14778,25 +15209,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"R,NR"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O1048576">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O1048576" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>"create_data_set,model,Run_reporting_tool,Validation_tests,export,visualisation_dash"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>"Datetime,Categorical,Numeric,Dataframe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14808,389 +15239,629 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A243D83-5EB1-4694-8D19-362C751CED51}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
-        <v>563</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>578</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
-        <v>585</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>605</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>808</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" t="s">
+        <v>786</v>
+      </c>
+      <c r="E5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" t="s">
+        <v>787</v>
+      </c>
+      <c r="E7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D9" t="s">
+        <v>790</v>
+      </c>
+      <c r="E9" t="s">
+        <v>731</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E11" t="s">
+        <v>731</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" t="s">
+        <v>781</v>
+      </c>
+      <c r="D12" t="s">
+        <v>792</v>
+      </c>
+      <c r="E12" t="s">
+        <v>731</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I12" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" t="s">
+        <v>803</v>
+      </c>
+      <c r="D13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E13" t="s">
+        <v>731</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I13" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>782</v>
+      </c>
+      <c r="D14" t="s">
+        <v>802</v>
+      </c>
+      <c r="E14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" t="s">
+        <v>783</v>
+      </c>
+      <c r="D15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" t="s">
+        <v>780</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="E16" t="s">
+        <v>731</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H16" t="s">
+        <v>798</v>
+      </c>
+      <c r="I16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" t="s">
+        <v>781</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" t="s">
+        <v>731</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H17" t="s">
+        <v>798</v>
+      </c>
+      <c r="I17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" t="s">
+        <v>731</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H18" t="s">
+        <v>798</v>
+      </c>
+      <c r="I18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>801</v>
+      </c>
+      <c r="E19" t="s">
+        <v>731</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H19" t="s">
+        <v>798</v>
+      </c>
+      <c r="I19" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>805</v>
+      </c>
+      <c r="E20" t="s">
+        <v>731</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H20" t="s">
+        <v>798</v>
+      </c>
+      <c r="I20" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{8D76983D-28D8-40FA-81DF-50E84AF004E2}">
+      <formula1>"Input,Output,Calculated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{5A23AC18-18EC-4ADD-813B-C42B62155790}">
+      <formula1>"Datetime,Categorical,Numeric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{0603A4C1-7DAA-44AA-8103-97FDFBDD8906}">
+      <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Z:\FSO Advisory All\2. FSO Advisory _ Solutions\3. Risk\2. Data Quality\1. Conceptual\[DataQuality_Testing_Conceptual.xlsb]Lists'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C12:D13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15535,9 +16206,94 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15591,34 +16347,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15640,10 +16376,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvboey\Documents\Python\GitHub\ML4Credit\IRB models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvsven\Documents\Python\GitHub\ML4Credit\IRB models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F508E75-2F51-489E-9856-8A8D22AC95EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,12 +181,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Brent Oeyen</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,12 +215,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="H23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,8 +442,93 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sander Vandevenne</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should be unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be unique: How to cope with Default_binary serving as an input to multiple other 'technical names'?
+Note that previously the idea was captured by the 'precedent(s)' and dependent(s)' columns.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The grade and portfolio 'names' are duplicated information. In general, how to handle: 
+1. The same output needed to be reported at multiple instances (e.g. across parameter templates).
+2. Calculated or input 'technical' names that serve as input to multiple parameters </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="837">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2934,11 +3018,86 @@
   <si>
     <t>LGD_toExcel</t>
   </si>
+  <si>
+    <t>PD_toExcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: D6 &amp; Range(.[D8], .[D8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: E6 &amp;  Range(.[E8], .[E8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t>name_rating_grades</t>
+  </si>
+  <si>
+    <t>averagePD_pergrade</t>
+  </si>
+  <si>
+    <t>nb_customer_pergrade</t>
+  </si>
+  <si>
+    <t>nb_default_pergrade</t>
+  </si>
+  <si>
+    <t>jeffrey_test_pval_pergrade</t>
+  </si>
+  <si>
+    <t>original_exposure_pergrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: F6 &amp;  Range(.[F8], .[F8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: G6 &amp; Range(.[G8], .[G8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: H6 &amp; Range(.[H8], .[H8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: I6 &amp; Range(.[I8], .[I8].End(xlDown)) </t>
+  </si>
+  <si>
+    <t>Section 2.5.1(a)</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: Name of the rating grade</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: PD at the beginning of the relevant observation period</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: Number of customers</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: Number of defaulted customers</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: The p-value per rating grade infered from the bèta distribution</t>
+  </si>
+  <si>
+    <t>Section 2.5.3: The original exposure at the beginning of the relevant observation period.</t>
+  </si>
+  <si>
+    <t>No explicit definition found</t>
+  </si>
+  <si>
+    <t>PD_tests</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3859,7 +4018,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4025,6 +4184,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4073,7 +4233,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6580,7 +6740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7241,7 +7401,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:B57">
     <sortState ref="A2:B61">
       <sortCondition ref="A1:A61"/>
     </sortState>
@@ -7260,7 +7420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -7279,74 +7439,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="88" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="101" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -7406,12 +7566,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="91" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -7540,7 +7700,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Z:\FSO Advisory All\2. FSO Advisory _ Solutions\3. Risk\2. Data Quality\1. Conceptual\[DataQuality_Testing_Conceptual.xlsb]Lists'!#REF!</xm:f>
           </x14:formula1>
@@ -7553,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -7572,7 +7732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B109"/>
   <sheetViews>
@@ -8450,7 +8610,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B89" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:B89">
     <sortState ref="A2:B93">
       <sortCondition ref="A1:A93"/>
     </sortState>
@@ -8469,7 +8629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -8567,7 +8727,7 @@
       <c r="B12" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:B10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -8580,7 +8740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
@@ -9056,7 +9216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K247"/>
   <sheetViews>
@@ -12818,7 +12978,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"{""a"",""b""}"</x12ac:list>
@@ -12836,7 +12996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12916,7 +13076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15197,7 +15357,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P70" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:P70"/>
   <conditionalFormatting sqref="A1:A9 A57:A70 A11:A55">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
@@ -15209,25 +15369,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"R,NR"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O1048576" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0700-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0700-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"create_data_set,model,Run_reporting_tool,Validation_tests,export,visualisation_dash"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576" xr:uid="{00000000-0002-0000-0700-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576">
       <formula1>"Datetime,Categorical,Numeric,Dataframe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15239,11 +15399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A243D83-5EB1-4694-8D19-362C751CED51}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15260,31 +15421,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="87" t="s">
         <v>772</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="87" t="s">
         <v>796</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="87" t="s">
         <v>784</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>794</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="87" t="s">
         <v>807</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="87" t="s">
         <v>808</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="87" t="s">
         <v>806</v>
       </c>
     </row>
@@ -15839,20 +16000,465 @@
         <v>813</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="E22" s="104" t="str">
+        <f>$E$2</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>827</v>
+      </c>
+      <c r="E23" s="104" t="str">
+        <f>$E$2</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>777</v>
+      </c>
+      <c r="E24" s="104" t="s">
+        <v>729</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>817</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>828</v>
+      </c>
+      <c r="E25" t="s">
+        <v>731</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>818</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>829</v>
+      </c>
+      <c r="E26" t="s">
+        <v>731</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" t="s">
+        <v>819</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>830</v>
+      </c>
+      <c r="E27" t="s">
+        <v>731</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>820</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>831</v>
+      </c>
+      <c r="E28" t="s">
+        <v>731</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>821</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>832</v>
+      </c>
+      <c r="E29" t="s">
+        <v>731</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H29" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" t="s">
+        <v>822</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>833</v>
+      </c>
+      <c r="E30" t="s">
+        <v>731</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H30" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="I30" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E31" t="s">
+        <v>731</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="s">
+        <v>818</v>
+      </c>
+      <c r="D32" t="s">
+        <v>816</v>
+      </c>
+      <c r="E32" t="s">
+        <v>731</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" t="s">
+        <v>819</v>
+      </c>
+      <c r="D33" t="s">
+        <v>823</v>
+      </c>
+      <c r="E33" t="s">
+        <v>731</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
+        <v>820</v>
+      </c>
+      <c r="D34" t="s">
+        <v>824</v>
+      </c>
+      <c r="E34" t="s">
+        <v>731</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" t="s">
+        <v>821</v>
+      </c>
+      <c r="D35" t="s">
+        <v>825</v>
+      </c>
+      <c r="E35" t="s">
+        <v>731</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>822</v>
+      </c>
+      <c r="D36" t="s">
+        <v>826</v>
+      </c>
+      <c r="E36" t="s">
+        <v>731</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{8D76983D-28D8-40FA-81DF-50E84AF004E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A36">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{5A23AC18-18EC-4ADD-813B-C42B62155790}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36">
+      <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{0603A4C1-7DAA-44AA-8103-97FDFBDD8906}">
-      <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15862,6 +16468,146 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16206,146 +16952,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
@@ -16355,6 +16961,42 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16374,40 +17016,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -442,93 +442,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Sander Vandevenne</author>
-  </authors>
-  <commentList>
-    <comment ref="C22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should be unique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be unique: How to cope with Default_binary serving as an input to multiple other 'technical names'?
-Note that previously the idea was captured by the 'precedent(s)' and dependent(s)' columns.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sander Vandevenne:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The grade and portfolio 'names' are duplicated information. In general, how to handle: 
-1. The same output needed to be reported at multiple instances (e.g. across parameter templates).
-2. Calculated or input 'technical' names that serve as input to multiple parameters </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="888">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -3085,13 +3000,181 @@
     <t>Section 2.5.3: The original exposure at the beginning of the relevant observation period.</t>
   </si>
   <si>
-    <t>No explicit definition found</t>
-  </si>
-  <si>
     <t>PD_tests</t>
   </si>
   <si>
     <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Section 2.5 footnote 21</t>
+  </si>
+  <si>
+    <t>PD_AUC_val</t>
+  </si>
+  <si>
+    <t>PD_s_val</t>
+  </si>
+  <si>
+    <t>PD_AUC_dev</t>
+  </si>
+  <si>
+    <t>PD_AUC_S</t>
+  </si>
+  <si>
+    <t>PD_AUC_p</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: D7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: E7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: F7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: G7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: H7</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Section 3.1: AUC of the current period</t>
+  </si>
+  <si>
+    <t>Section 3.1: AUC of the development period</t>
+  </si>
+  <si>
+    <t>Section 3.1: AUC test statistic</t>
+  </si>
+  <si>
+    <t>Section 3.1: p-value of AUC test statistic</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.1: Upper matrix weighted bandwidth</t>
+  </si>
+  <si>
+    <t>Section 2.5: Footnote 21 transformation</t>
+  </si>
+  <si>
+    <t>Section 3.1: Variance of the AUC of the current period</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.1: Lower matrix weighted bandwidth</t>
+  </si>
+  <si>
+    <t>MWB</t>
+  </si>
+  <si>
+    <t>transition_matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2.5.5.1: Rating transition matrix </t>
+  </si>
+  <si>
+    <t>transition_matrix_freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2.5.5.1: Relative rating transition matrix </t>
+  </si>
+  <si>
+    <t>Bin_PD</t>
+  </si>
+  <si>
+    <t>z_up</t>
+  </si>
+  <si>
+    <t>z_low</t>
+  </si>
+  <si>
+    <t>zUP_pval</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.1      cell: D7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.1      cell: E7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.2      cell: upper triangular z-values</t>
+  </si>
+  <si>
+    <t>zDOWN_pval</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.2      cell: upper triangular p-values</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.2      cell: lower triangular z-values</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 5.2      cell: lower triangular p-values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2.5.5.2: z-statistics transition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2.5.5.2: probability-statistics transition </t>
+  </si>
+  <si>
+    <t>stability_migration_matrix</t>
+  </si>
+  <si>
+    <t>cr_pval</t>
+  </si>
+  <si>
+    <t>HI_curr_exp</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: D18</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: E18</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: F18</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: G18</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.3: Herfindahl index at the beginning of the observation period</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.3: Herfindahl index at the end of the observation period</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.3: p-val of change in concentration</t>
+  </si>
+  <si>
+    <t>Section 2.5.5.3: Herfindahl index at the end of the observation period (exposure weighted)</t>
+  </si>
+  <si>
+    <t>Herfindahl</t>
+  </si>
+  <si>
+    <t>Section 2.5: Footnote 21</t>
+  </si>
+  <si>
+    <t>Section 2.5 Footnote 21</t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4101,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4185,6 +4268,7 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4233,7 +4317,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4325,7 +4409,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7439,74 +7537,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -7566,12 +7664,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -15359,12 +15457,12 @@
   </sheetData>
   <autoFilter ref="A1:P70"/>
   <conditionalFormatting sqref="A1:A9 A57:A70 A11:A55">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15399,12 +15497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15454,144 +15552,146 @@
         <v>645</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>463</v>
+        <v>614</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
-      </c>
-      <c r="E2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E2" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>729</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F4" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G4" s="83" t="s">
         <v>795</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H4" s="83" t="s">
         <v>795</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D3" t="s">
-        <v>773</v>
-      </c>
-      <c r="E3" t="s">
-        <v>729</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D4" t="s">
-        <v>785</v>
-      </c>
-      <c r="E4" t="s">
-        <v>729</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="83" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>776</v>
-      </c>
-      <c r="D5" t="s">
-        <v>786</v>
+        <v>817</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>828</v>
       </c>
       <c r="E5" t="s">
-        <v>729</v>
-      </c>
-      <c r="F5" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>795</v>
+        <v>730</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" t="s">
-        <v>777</v>
+        <v>818</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>829</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
-      </c>
-      <c r="F6" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>795</v>
+        <v>730</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -15599,28 +15699,28 @@
         <v>659</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>725</v>
-      </c>
-      <c r="D7" t="s">
-        <v>787</v>
+        <v>819</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>830</v>
       </c>
       <c r="E7" t="s">
         <v>731</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>811</v>
+      <c r="H7" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -15628,28 +15728,28 @@
         <v>659</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>778</v>
-      </c>
-      <c r="D8" t="s">
-        <v>788</v>
+        <v>820</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>831</v>
       </c>
       <c r="E8" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>812</v>
+      <c r="H8" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -15657,28 +15757,28 @@
         <v>659</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>724</v>
-      </c>
-      <c r="D9" t="s">
-        <v>790</v>
+        <v>821</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>832</v>
       </c>
       <c r="E9" t="s">
         <v>731</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H9" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>811</v>
+      <c r="H9" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -15686,42 +15786,42 @@
         <v>659</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>779</v>
-      </c>
-      <c r="D10" t="s">
-        <v>789</v>
+        <v>822</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>833</v>
       </c>
       <c r="E10" t="s">
         <v>731</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="83" t="s">
         <v>647</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>812</v>
+      <c r="H10" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
       <c r="D11" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E11" t="s">
         <v>731</v>
@@ -15730,27 +15830,27 @@
         <v>647</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I11" t="s">
-        <v>723</v>
+        <v>798</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="D12" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="E12" t="s">
         <v>731</v>
@@ -15759,27 +15859,27 @@
         <v>647</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I12" t="s">
-        <v>723</v>
+        <v>798</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="E13" t="s">
         <v>731</v>
@@ -15788,27 +15888,27 @@
         <v>647</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I13" t="s">
-        <v>723</v>
+        <v>798</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
       <c r="D14" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="E14" t="s">
         <v>731</v>
@@ -15817,27 +15917,27 @@
         <v>647</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I14" t="s">
-        <v>723</v>
+        <v>798</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="D15" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="E15" t="s">
         <v>731</v>
@@ -15846,13 +15946,13 @@
         <v>647</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I15" t="s">
-        <v>723</v>
+        <v>798</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -15860,13 +15960,13 @@
         <v>646</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>780</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>797</v>
+        <v>822</v>
+      </c>
+      <c r="D16" t="s">
+        <v>826</v>
       </c>
       <c r="E16" t="s">
         <v>731</v>
@@ -15877,83 +15977,84 @@
       <c r="G16" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="I16" t="s">
-        <v>813</v>
+      <c r="I16" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C17" t="s">
-        <v>781</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>799</v>
-      </c>
-      <c r="E17" t="s">
-        <v>731</v>
-      </c>
-      <c r="F17" s="54" t="s">
+      <c r="A17" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="D17" t="s">
+        <v>853</v>
+      </c>
+      <c r="E17" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H17" t="s">
-        <v>798</v>
-      </c>
-      <c r="I17" t="s">
-        <v>813</v>
+      <c r="G17" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" t="s">
-        <v>803</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>800</v>
+      <c r="A18" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" t="s">
+        <v>777</v>
       </c>
       <c r="E18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F18" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H18" t="s">
-        <v>798</v>
-      </c>
-      <c r="I18" t="s">
-        <v>813</v>
+        <v>795</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>782</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>801</v>
+        <v>837</v>
+      </c>
+      <c r="D19" t="s">
+        <v>848</v>
       </c>
       <c r="E19" t="s">
         <v>731</v>
@@ -15962,27 +16063,27 @@
         <v>647</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H19" t="s">
-        <v>798</v>
-      </c>
-      <c r="I19" t="s">
-        <v>813</v>
+        <v>730</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>783</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>805</v>
+        <v>839</v>
+      </c>
+      <c r="D20" t="s">
+        <v>849</v>
       </c>
       <c r="E20" t="s">
         <v>731</v>
@@ -15991,326 +16092,348 @@
         <v>647</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H20" t="s">
-        <v>798</v>
-      </c>
-      <c r="I20" t="s">
-        <v>813</v>
+        <v>730</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="A21" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" t="s">
+        <v>838</v>
+      </c>
+      <c r="D21" t="s">
+        <v>854</v>
+      </c>
+      <c r="E21" t="s">
+        <v>731</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="83" t="s">
+        <v>840</v>
+      </c>
+      <c r="D22" t="s">
+        <v>850</v>
+      </c>
+      <c r="E22" t="s">
+        <v>731</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H22" s="83" t="s">
         <v>834</v>
       </c>
-      <c r="E22" s="104" t="str">
-        <f>$E$2</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F22" s="83" t="s">
+      <c r="I22" s="83" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" t="s">
+        <v>841</v>
+      </c>
+      <c r="D23" t="s">
+        <v>851</v>
+      </c>
+      <c r="E23" t="s">
+        <v>731</v>
+      </c>
+      <c r="F23" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="G22" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="H22" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="I22" s="83" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
-        <v>645</v>
-      </c>
-      <c r="B23" s="83" t="s">
+      <c r="G23" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="104" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>827</v>
-      </c>
-      <c r="E23" s="104" t="str">
-        <f>$E$2</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F23" s="83" t="s">
+      <c r="C24" t="s">
+        <v>837</v>
+      </c>
+      <c r="D24" t="s">
+        <v>842</v>
+      </c>
+      <c r="E24" t="s">
+        <v>731</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="G23" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="I23" s="83" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>645</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>392</v>
-      </c>
-      <c r="D24" s="104" t="s">
-        <v>777</v>
-      </c>
-      <c r="E24" s="104" t="s">
-        <v>729</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="G24" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="H24" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="I24" s="83" t="s">
-        <v>795</v>
+      <c r="G24" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C25" t="s">
-        <v>817</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>828</v>
+        <v>839</v>
+      </c>
+      <c r="D25" t="s">
+        <v>843</v>
       </c>
       <c r="E25" t="s">
         <v>731</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>835</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>836</v>
+        <v>798</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C26" t="s">
-        <v>818</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>829</v>
+        <v>838</v>
+      </c>
+      <c r="D26" t="s">
+        <v>844</v>
       </c>
       <c r="E26" t="s">
         <v>731</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>835</v>
-      </c>
-      <c r="I26" s="83" t="s">
-        <v>836</v>
+        <v>798</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C27" t="s">
-        <v>819</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>830</v>
+        <v>840</v>
+      </c>
+      <c r="D27" t="s">
+        <v>845</v>
       </c>
       <c r="E27" t="s">
         <v>731</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>835</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>836</v>
+        <v>798</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C28" t="s">
-        <v>820</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>831</v>
+        <v>841</v>
+      </c>
+      <c r="D28" t="s">
+        <v>846</v>
       </c>
       <c r="E28" t="s">
         <v>731</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H28" s="83" t="s">
-        <v>835</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>836</v>
+        <v>798</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>821</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>832</v>
-      </c>
-      <c r="E29" t="s">
-        <v>731</v>
+        <v>861</v>
+      </c>
+      <c r="D29" t="s">
+        <v>887</v>
+      </c>
+      <c r="E29" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="G29" s="54" t="s">
-        <v>730</v>
+      <c r="G29" s="83" t="s">
+        <v>795</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>836</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C30" t="s">
-        <v>822</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>833</v>
-      </c>
-      <c r="E30" t="s">
-        <v>731</v>
+        <v>614</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="D30" t="s">
+        <v>853</v>
+      </c>
+      <c r="E30" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
       </c>
       <c r="F30" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="G30" s="54" t="s">
-        <v>730</v>
+      <c r="G30" s="83" t="s">
+        <v>795</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="I30" s="83" t="s">
-        <v>836</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" t="s">
-        <v>817</v>
+        <v>614</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="E31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F31" s="54" t="s">
         <v>647</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C32" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="D32" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="E32" t="s">
         <v>731</v>
@@ -16319,27 +16442,27 @@
         <v>647</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C33" t="s">
-        <v>819</v>
+        <v>859</v>
       </c>
       <c r="D33" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="E33" t="s">
         <v>731</v>
@@ -16348,27 +16471,27 @@
         <v>647</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C34" t="s">
-        <v>820</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E34" t="s">
         <v>731</v>
@@ -16377,27 +16500,27 @@
         <v>647</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>814</v>
+        <v>730</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C35" t="s">
-        <v>821</v>
+        <v>453</v>
       </c>
       <c r="D35" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="E35" t="s">
         <v>731</v>
@@ -16406,13 +16529,13 @@
         <v>647</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>814</v>
+        <v>730</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -16423,10 +16546,10 @@
         <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>822</v>
+        <v>455</v>
       </c>
       <c r="D36" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="E36" t="s">
         <v>731</v>
@@ -16437,37 +16560,1290 @@
       <c r="G36" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="83" t="s">
         <v>798</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="I36" s="83" t="s">
         <v>814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D37" t="s">
+        <v>866</v>
+      </c>
+      <c r="E37" t="s">
+        <v>731</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>861</v>
+      </c>
+      <c r="D38" t="s">
+        <v>836</v>
+      </c>
+      <c r="E38" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="D39" t="s">
+        <v>853</v>
+      </c>
+      <c r="E39" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" t="s">
+        <v>777</v>
+      </c>
+      <c r="E40" t="s">
+        <v>729</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" t="s">
+        <v>857</v>
+      </c>
+      <c r="D41" t="s">
+        <v>858</v>
+      </c>
+      <c r="E41" t="s">
+        <v>731</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" t="s">
+        <v>859</v>
+      </c>
+      <c r="D42" t="s">
+        <v>860</v>
+      </c>
+      <c r="E42" t="s">
+        <v>731</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" t="s">
+        <v>862</v>
+      </c>
+      <c r="D43" t="s">
+        <v>872</v>
+      </c>
+      <c r="E43" t="s">
+        <v>731</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>863</v>
+      </c>
+      <c r="D44" t="s">
+        <v>872</v>
+      </c>
+      <c r="E44" t="s">
+        <v>731</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H44" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I44" s="83" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C45" t="s">
+        <v>864</v>
+      </c>
+      <c r="D45" t="s">
+        <v>873</v>
+      </c>
+      <c r="E45" t="s">
+        <v>731</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H45" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>868</v>
+      </c>
+      <c r="D46" t="s">
+        <v>873</v>
+      </c>
+      <c r="E46" t="s">
+        <v>731</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H46" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I46" s="83" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" t="s">
+        <v>862</v>
+      </c>
+      <c r="D47" t="s">
+        <v>867</v>
+      </c>
+      <c r="E47" t="s">
+        <v>731</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" t="s">
+        <v>863</v>
+      </c>
+      <c r="D48" t="s">
+        <v>870</v>
+      </c>
+      <c r="E48" t="s">
+        <v>731</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I48" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" t="s">
+        <v>864</v>
+      </c>
+      <c r="D49" t="s">
+        <v>869</v>
+      </c>
+      <c r="E49" t="s">
+        <v>731</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I49" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" t="s">
+        <v>868</v>
+      </c>
+      <c r="D50" t="s">
+        <v>871</v>
+      </c>
+      <c r="E50" t="s">
+        <v>731</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I50" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" t="s">
+        <v>861</v>
+      </c>
+      <c r="D51" t="s">
+        <v>887</v>
+      </c>
+      <c r="E51" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>886</v>
+      </c>
+      <c r="E52" s="88" t="str">
+        <f>$E$62</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="I52" s="83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" t="s">
+        <v>671</v>
+      </c>
+      <c r="D53" t="s">
+        <v>881</v>
+      </c>
+      <c r="E53" t="s">
+        <v>731</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I53" s="83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" t="s">
+        <v>672</v>
+      </c>
+      <c r="D54" t="s">
+        <v>882</v>
+      </c>
+      <c r="E54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H54" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I54" s="83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" t="s">
+        <v>875</v>
+      </c>
+      <c r="D55" t="s">
+        <v>883</v>
+      </c>
+      <c r="E55" t="s">
+        <v>731</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H55" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>876</v>
+      </c>
+      <c r="D56" t="s">
+        <v>884</v>
+      </c>
+      <c r="E56" t="s">
+        <v>731</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H56" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="I56" s="83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" t="s">
+        <v>671</v>
+      </c>
+      <c r="D57" t="s">
+        <v>877</v>
+      </c>
+      <c r="E57" t="s">
+        <v>731</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H57" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I57" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" t="s">
+        <v>672</v>
+      </c>
+      <c r="D58" t="s">
+        <v>878</v>
+      </c>
+      <c r="E58" t="s">
+        <v>731</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H58" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I58" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>875</v>
+      </c>
+      <c r="D59" t="s">
+        <v>879</v>
+      </c>
+      <c r="E59" t="s">
+        <v>731</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H59" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I59" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="105" t="s">
+        <v>876</v>
+      </c>
+      <c r="D60" t="s">
+        <v>880</v>
+      </c>
+      <c r="E60" t="s">
+        <v>731</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H60" s="83" t="s">
+        <v>798</v>
+      </c>
+      <c r="I60" s="83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" t="s">
+        <v>774</v>
+      </c>
+      <c r="E62" t="s">
+        <v>729</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C63" t="s">
+        <v>624</v>
+      </c>
+      <c r="D63" t="s">
+        <v>773</v>
+      </c>
+      <c r="E63" t="s">
+        <v>729</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" t="s">
+        <v>775</v>
+      </c>
+      <c r="D64" t="s">
+        <v>785</v>
+      </c>
+      <c r="E64" t="s">
+        <v>729</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C65" t="s">
+        <v>776</v>
+      </c>
+      <c r="D65" t="s">
+        <v>786</v>
+      </c>
+      <c r="E65" t="s">
+        <v>729</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" t="s">
+        <v>777</v>
+      </c>
+      <c r="E66" t="s">
+        <v>729</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" t="s">
+        <v>725</v>
+      </c>
+      <c r="D67" t="s">
+        <v>787</v>
+      </c>
+      <c r="E67" t="s">
+        <v>731</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C68" t="s">
+        <v>778</v>
+      </c>
+      <c r="D68" t="s">
+        <v>788</v>
+      </c>
+      <c r="E68" t="s">
+        <v>731</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" t="s">
+        <v>724</v>
+      </c>
+      <c r="D69" t="s">
+        <v>790</v>
+      </c>
+      <c r="E69" t="s">
+        <v>731</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>779</v>
+      </c>
+      <c r="D70" t="s">
+        <v>789</v>
+      </c>
+      <c r="E70" t="s">
+        <v>731</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C71" t="s">
+        <v>780</v>
+      </c>
+      <c r="D71" t="s">
+        <v>791</v>
+      </c>
+      <c r="E71" t="s">
+        <v>731</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I71" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C72" t="s">
+        <v>781</v>
+      </c>
+      <c r="D72" t="s">
+        <v>792</v>
+      </c>
+      <c r="E72" t="s">
+        <v>731</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I72" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" t="s">
+        <v>803</v>
+      </c>
+      <c r="D73" t="s">
+        <v>804</v>
+      </c>
+      <c r="E73" t="s">
+        <v>731</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I73" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C74" t="s">
+        <v>782</v>
+      </c>
+      <c r="D74" t="s">
+        <v>802</v>
+      </c>
+      <c r="E74" t="s">
+        <v>731</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I74" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C75" t="s">
+        <v>783</v>
+      </c>
+      <c r="D75" t="s">
+        <v>793</v>
+      </c>
+      <c r="E75" t="s">
+        <v>731</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="I75" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C76" t="s">
+        <v>780</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="E76" t="s">
+        <v>731</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H76" t="s">
+        <v>798</v>
+      </c>
+      <c r="I76" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C77" t="s">
+        <v>781</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" t="s">
+        <v>731</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H77" t="s">
+        <v>798</v>
+      </c>
+      <c r="I77" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C78" t="s">
+        <v>803</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>800</v>
+      </c>
+      <c r="E78" t="s">
+        <v>731</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H78" t="s">
+        <v>798</v>
+      </c>
+      <c r="I78" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>782</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>801</v>
+      </c>
+      <c r="E79" t="s">
+        <v>731</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H79" t="s">
+        <v>798</v>
+      </c>
+      <c r="I79" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C80" t="s">
+        <v>783</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>805</v>
+      </c>
+      <c r="E80" t="s">
+        <v>731</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="H80" t="s">
+        <v>798</v>
+      </c>
+      <c r="I80" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A35 A62:A80 A2:A23">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -16517,97 +17893,12 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16952,7 +18243,105 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -16960,18 +18349,24 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16997,23 +18392,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="951">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2824,9 +2824,6 @@
     <t>dev_LGD_transition_matrix_freq</t>
   </si>
   <si>
-    <t>mon_LGD_transition_matrix_freq</t>
-  </si>
-  <si>
     <t>LGD_gAUC_init</t>
   </si>
   <si>
@@ -2900,9 +2897,6 @@
     <t>Section 3.2: Test statistic of the AUC calculated for the validation period</t>
   </si>
   <si>
-    <t>LGD_s</t>
-  </si>
-  <si>
     <t>Section 3.2: Variance</t>
   </si>
   <si>
@@ -3175,6 +3169,215 @@
   </si>
   <si>
     <t>Section 2.5 Footnote 21</t>
+  </si>
+  <si>
+    <t>LGD_backtesting_ptf</t>
+  </si>
+  <si>
+    <t>LGD_backtesting_perGrade</t>
+  </si>
+  <si>
+    <t>Section 2.6.2.1: t-test for the portfolio</t>
+  </si>
+  <si>
+    <t>Section 2.6.2.1: t-test per rating grade</t>
+  </si>
+  <si>
+    <t>backtesting_facilityGrade</t>
+  </si>
+  <si>
+    <t>backtesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: V8 </t>
+  </si>
+  <si>
+    <t>LGDD_realised</t>
+  </si>
+  <si>
+    <t>LGDD_backtesting_ptf</t>
+  </si>
+  <si>
+    <t>LGDD_tests</t>
+  </si>
+  <si>
+    <t>LGDD_backtesting_perGrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: V8 </t>
+  </si>
+  <si>
+    <t>LGDD_toExcel</t>
+  </si>
+  <si>
+    <t>Section 2.8.1(a)</t>
+  </si>
+  <si>
+    <t>Section 2.8.1(b)</t>
+  </si>
+  <si>
+    <t>Section 2.8.2.1: t-test for the portfolio</t>
+  </si>
+  <si>
+    <t>Section 2.8.2.1: t-test per rating grade</t>
+  </si>
+  <si>
+    <t>dev_CCF_transition_matrix</t>
+  </si>
+  <si>
+    <t>dev_CCF_transition_matrix_freq</t>
+  </si>
+  <si>
+    <t>CCF_gAUC_init</t>
+  </si>
+  <si>
+    <t>CCF_tests</t>
+  </si>
+  <si>
+    <t>CCF_gAUC_curr</t>
+  </si>
+  <si>
+    <t>CCF_S</t>
+  </si>
+  <si>
+    <t>CCF_p_val</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: D7</t>
+  </si>
+  <si>
+    <t>CCF_toExcel</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: E7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: F7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: G7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: H7</t>
+  </si>
+  <si>
+    <t>bin_CCF</t>
+  </si>
+  <si>
+    <t>Section 3.2: Facility pools used by the institution or 12 percentile intervals based on CCF ordered from low to high</t>
+  </si>
+  <si>
+    <t>bin_CCF_realised</t>
+  </si>
+  <si>
+    <t>Section 3.2: Facility pools used by the institution or 12 percentile intervals based on realised CCF  ordered from low to high</t>
+  </si>
+  <si>
+    <t>val_CCF_transition_matrix</t>
+  </si>
+  <si>
+    <t>val_CCF_transition_matrix_freq</t>
+  </si>
+  <si>
+    <t>val_LGD_transition_matrix</t>
+  </si>
+  <si>
+    <t>val_LGD_transition_matrix_freq</t>
+  </si>
+  <si>
+    <t>Section 2.9.1(a)</t>
+  </si>
+  <si>
+    <t>Section 2.9.1(b)</t>
+  </si>
+  <si>
+    <t>CCF_init_var</t>
+  </si>
+  <si>
+    <t>CCF_curr_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 3.2: Variance </t>
+  </si>
+  <si>
+    <t>LGD_init_var</t>
+  </si>
+  <si>
+    <t>LGD_curr_var</t>
+  </si>
+  <si>
+    <t>PD_s_dev</t>
+  </si>
+  <si>
+    <t>LGD_psi</t>
+  </si>
+  <si>
+    <t>Section 2.6.4.2: population stability index</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx sheet: 4.2      cell: E33</t>
+  </si>
+  <si>
+    <t>CCF_psi</t>
+  </si>
+  <si>
+    <t>CCF_backtesting_ptf</t>
+  </si>
+  <si>
+    <t>CCF_backtesting_perGrade</t>
+  </si>
+  <si>
+    <t>Section 3.1: Variance of the AUC of the development period</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 4.0      cell: M7</t>
+  </si>
+  <si>
+    <t>Section 2.9.3.1: t-test for the portfolio</t>
+  </si>
+  <si>
+    <t>Section 2.9.3.1: t-test per rating grade</t>
+  </si>
+  <si>
+    <t>CCF_</t>
+  </si>
+  <si>
+    <t>Section 2.9.5.2: population stability index</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: L7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.0      cell: L7</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx sheet: 5.2      cell: E40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.1      cell: U8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 3.1      cell: Range(.[U10], .[U10].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: Range(.[V10], .[V10].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: Range(.[V10], .[V10].End(xlDown)) </t>
   </si>
 </sst>
 </file>
@@ -4101,7 +4304,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4269,6 +4472,7 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4317,7 +4521,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4409,21 +4613,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -6501,6 +6691,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF80D0A-3538-4568-AF16-2230F86EED2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="365760"/>
+          <a:ext cx="7193280" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+            <a:t>Commit and push to github + Send Brent a mail: mind duplicates still present, option to delete them remains</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+            <a:t>Stuff that is not yet implemented is highlighted in red</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7537,74 +7809,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="90" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="90" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -7664,12 +7936,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="93" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -15457,12 +15729,12 @@
   </sheetData>
   <autoFilter ref="A1:P70"/>
   <conditionalFormatting sqref="A1:A9 A57:A70 A11:A55">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15498,11 +15770,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15529,22 +15801,22 @@
         <v>357</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F1" s="87" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -15558,23 +15830,23 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E2" s="88" t="str">
-        <f>$E$62</f>
+        <f>$E$69</f>
         <v>create_data_set</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" t="s">
         <v>647</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -15588,23 +15860,23 @@
         <v>365</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E3" s="88" t="str">
-        <f>$E$62</f>
+        <f>$E$69</f>
         <v>create_data_set</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" t="s">
         <v>647</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I3" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -15623,17 +15895,17 @@
       <c r="E4" s="88" t="s">
         <v>729</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" t="s">
         <v>647</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -15644,25 +15916,25 @@
         <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E5" t="s">
         <v>731</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" t="s">
         <v>647</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -15673,25 +15945,25 @@
         <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E6" t="s">
         <v>731</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" t="s">
         <v>647</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -15702,25 +15974,25 @@
         <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E7" t="s">
         <v>731</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" t="s">
         <v>647</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -15731,25 +16003,25 @@
         <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E8" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" t="s">
         <v>647</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -15760,25 +16032,25 @@
         <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E9" t="s">
         <v>731</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" t="s">
         <v>647</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I9" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -15789,25 +16061,25 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E10" t="s">
         <v>731</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" t="s">
         <v>647</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -15818,25 +16090,25 @@
         <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>817</v>
-      </c>
-      <c r="D11" t="s">
         <v>815</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>813</v>
       </c>
       <c r="E11" t="s">
         <v>731</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" t="s">
         <v>647</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>814</v>
+        <v>797</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -15847,25 +16119,25 @@
         <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E12" t="s">
         <v>731</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" t="s">
         <v>647</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -15876,25 +16148,25 @@
         <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E13" t="s">
         <v>731</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" t="s">
         <v>647</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -15905,25 +16177,25 @@
         <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E14" t="s">
         <v>731</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" t="s">
         <v>647</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -15934,25 +16206,25 @@
         <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E15" t="s">
         <v>731</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" t="s">
         <v>647</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -15963,25 +16235,25 @@
         <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E16" t="s">
         <v>731</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" t="s">
         <v>647</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -15995,23 +16267,23 @@
         <v>732</v>
       </c>
       <c r="D17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E17" s="88" t="str">
-        <f>$E$62</f>
+        <f>$E$69</f>
         <v>create_data_set</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" t="s">
         <v>647</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -16030,17 +16302,17 @@
       <c r="E18" t="s">
         <v>729</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" t="s">
         <v>647</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -16051,25 +16323,25 @@
         <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E19" t="s">
         <v>731</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" t="s">
         <v>647</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -16080,25 +16352,25 @@
         <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D20" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E20" t="s">
         <v>731</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" t="s">
         <v>647</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I20" s="83" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -16109,25 +16381,25 @@
         <v>365</v>
       </c>
       <c r="C21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D21" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E21" t="s">
         <v>731</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" t="s">
         <v>647</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I21" s="83" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -16138,25 +16410,25 @@
         <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E22" t="s">
         <v>731</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" t="s">
         <v>647</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -16167,54 +16439,54 @@
         <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E23" t="s">
         <v>731</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" t="s">
         <v>647</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I23" s="83" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B24" s="54" t="s">
+      <c r="A24" t="s">
+        <v>659</v>
+      </c>
+      <c r="B24" t="s">
         <v>365</v>
       </c>
       <c r="C24" t="s">
-        <v>837</v>
+        <v>931</v>
       </c>
       <c r="D24" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="E24" t="s">
         <v>731</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" t="s">
         <v>647</v>
       </c>
-      <c r="G24" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="I24" s="54" t="s">
-        <v>814</v>
+      <c r="G24" t="s">
+        <v>730</v>
+      </c>
+      <c r="H24" t="s">
+        <v>832</v>
+      </c>
+      <c r="I24" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -16225,25 +16497,25 @@
         <v>365</v>
       </c>
       <c r="C25" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D25" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E25" t="s">
         <v>731</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" t="s">
         <v>647</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -16254,25 +16526,25 @@
         <v>365</v>
       </c>
       <c r="C26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D26" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E26" t="s">
         <v>731</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" t="s">
         <v>647</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -16283,25 +16555,25 @@
         <v>365</v>
       </c>
       <c r="C27" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D27" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E27" t="s">
         <v>731</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" t="s">
         <v>647</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -16312,85 +16584,83 @@
         <v>365</v>
       </c>
       <c r="C28" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D28" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E28" t="s">
         <v>731</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" t="s">
         <v>647</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="D29" t="s">
-        <v>887</v>
-      </c>
-      <c r="E29" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F29" s="83" t="s">
+        <v>844</v>
+      </c>
+      <c r="E29" t="s">
+        <v>731</v>
+      </c>
+      <c r="F29" t="s">
         <v>647</v>
       </c>
-      <c r="G29" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="H29" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="I29" s="83" t="s">
-        <v>795</v>
+      <c r="G29" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>732</v>
+        <v>365</v>
+      </c>
+      <c r="C30" t="s">
+        <v>931</v>
       </c>
       <c r="D30" t="s">
-        <v>853</v>
-      </c>
-      <c r="E30" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F30" s="83" t="s">
+        <v>939</v>
+      </c>
+      <c r="E30" t="s">
+        <v>731</v>
+      </c>
+      <c r="F30" t="s">
         <v>647</v>
       </c>
-      <c r="G30" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="H30" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="I30" s="83" t="s">
-        <v>795</v>
+      <c r="G30" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -16398,86 +16668,88 @@
         <v>645</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>392</v>
+        <v>365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>859</v>
       </c>
       <c r="D31" t="s">
-        <v>777</v>
-      </c>
-      <c r="E31" t="s">
-        <v>729</v>
-      </c>
-      <c r="F31" s="54" t="s">
+        <v>885</v>
+      </c>
+      <c r="E31" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F31" t="s">
         <v>647</v>
       </c>
-      <c r="G31" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I31" s="54" t="s">
-        <v>795</v>
+      <c r="G31" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C32" t="s">
-        <v>857</v>
+        <v>614</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>732</v>
       </c>
       <c r="D32" t="s">
-        <v>858</v>
-      </c>
-      <c r="E32" t="s">
-        <v>731</v>
-      </c>
-      <c r="F32" s="54" t="s">
+        <v>851</v>
+      </c>
+      <c r="E32" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F32" t="s">
         <v>647</v>
       </c>
-      <c r="G32" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I32" s="54" t="s">
-        <v>811</v>
+      <c r="G32" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C33" t="s">
-        <v>859</v>
+        <v>614</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>860</v>
+        <v>777</v>
       </c>
       <c r="E33" t="s">
-        <v>731</v>
-      </c>
-      <c r="F33" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F33" t="s">
         <v>647</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -16488,25 +16760,25 @@
         <v>365</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>855</v>
       </c>
       <c r="D34" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E34" t="s">
         <v>731</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" t="s">
         <v>647</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H34" s="83" t="s">
-        <v>834</v>
-      </c>
-      <c r="I34" s="83" t="s">
-        <v>856</v>
+      <c r="H34" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -16517,30 +16789,30 @@
         <v>365</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
+        <v>857</v>
       </c>
       <c r="D35" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E35" t="s">
         <v>731</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" t="s">
         <v>647</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H35" s="83" t="s">
-        <v>834</v>
-      </c>
-      <c r="I35" s="83" t="s">
-        <v>856</v>
+      <c r="H35" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>365</v>
@@ -16549,27 +16821,27 @@
         <v>455</v>
       </c>
       <c r="D36" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="E36" t="s">
         <v>731</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" t="s">
         <v>647</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>365</v>
@@ -16578,82 +16850,80 @@
         <v>453</v>
       </c>
       <c r="D37" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="E37" t="s">
         <v>731</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" t="s">
         <v>647</v>
       </c>
       <c r="G37" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I37" s="83" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C38" t="s">
-        <v>861</v>
+        <v>455</v>
       </c>
       <c r="D38" t="s">
-        <v>836</v>
-      </c>
-      <c r="E38" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F38" s="83" t="s">
+        <v>863</v>
+      </c>
+      <c r="E38" t="s">
+        <v>731</v>
+      </c>
+      <c r="F38" t="s">
         <v>647</v>
       </c>
-      <c r="G38" s="83" t="s">
-        <v>795</v>
+      <c r="G38" s="54" t="s">
+        <v>797</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>732</v>
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
+        <v>453</v>
       </c>
       <c r="D39" t="s">
-        <v>853</v>
-      </c>
-      <c r="E39" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F39" s="83" t="s">
+        <v>864</v>
+      </c>
+      <c r="E39" t="s">
+        <v>731</v>
+      </c>
+      <c r="F39" t="s">
         <v>647</v>
       </c>
-      <c r="G39" s="83" t="s">
-        <v>795</v>
+      <c r="G39" s="54" t="s">
+        <v>797</v>
       </c>
       <c r="H39" s="83" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I39" s="83" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -16661,86 +16931,88 @@
         <v>645</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>392</v>
+        <v>365</v>
+      </c>
+      <c r="C40" t="s">
+        <v>859</v>
       </c>
       <c r="D40" t="s">
-        <v>777</v>
-      </c>
-      <c r="E40" t="s">
-        <v>729</v>
-      </c>
-      <c r="F40" s="54" t="s">
+        <v>834</v>
+      </c>
+      <c r="E40" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F40" t="s">
         <v>647</v>
       </c>
-      <c r="G40" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>795</v>
+      <c r="G40" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H40" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" t="s">
-        <v>857</v>
+        <v>614</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>732</v>
       </c>
       <c r="D41" t="s">
-        <v>858</v>
-      </c>
-      <c r="E41" t="s">
-        <v>731</v>
-      </c>
-      <c r="F41" s="54" t="s">
+        <v>851</v>
+      </c>
+      <c r="E41" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F41" t="s">
         <v>647</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>810</v>
-      </c>
-      <c r="I41" s="54" t="s">
-        <v>811</v>
+      <c r="G41" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H41" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C42" t="s">
-        <v>859</v>
+        <v>614</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>392</v>
       </c>
       <c r="D42" t="s">
-        <v>860</v>
+        <v>777</v>
       </c>
       <c r="E42" t="s">
-        <v>731</v>
-      </c>
-      <c r="F42" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F42" t="s">
         <v>647</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="I42" s="54" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -16751,25 +17023,25 @@
         <v>365</v>
       </c>
       <c r="C43" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D43" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E43" t="s">
         <v>731</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" t="s">
         <v>647</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H43" s="83" t="s">
-        <v>834</v>
-      </c>
-      <c r="I43" s="83" t="s">
-        <v>874</v>
+      <c r="H43" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -16780,25 +17052,25 @@
         <v>365</v>
       </c>
       <c r="C44" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D44" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E44" t="s">
         <v>731</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" t="s">
         <v>647</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H44" s="83" t="s">
-        <v>834</v>
-      </c>
-      <c r="I44" s="83" t="s">
-        <v>874</v>
+      <c r="H44" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -16809,25 +17081,25 @@
         <v>365</v>
       </c>
       <c r="C45" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D45" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E45" t="s">
         <v>731</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" t="s">
         <v>647</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I45" s="83" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -16838,30 +17110,30 @@
         <v>365</v>
       </c>
       <c r="C46" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D46" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E46" t="s">
         <v>731</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" t="s">
         <v>647</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B47" s="54" t="s">
         <v>365</v>
@@ -16870,51 +17142,51 @@
         <v>862</v>
       </c>
       <c r="D47" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E47" t="s">
         <v>731</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" t="s">
         <v>647</v>
       </c>
       <c r="G47" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I47" s="83" t="s">
-        <v>814</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C48" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D48" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E48" t="s">
         <v>731</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" t="s">
         <v>647</v>
       </c>
       <c r="G48" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I48" s="83" t="s">
-        <v>814</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -16925,25 +17197,25 @@
         <v>365</v>
       </c>
       <c r="C49" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D49" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E49" t="s">
         <v>731</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" t="s">
         <v>647</v>
       </c>
       <c r="G49" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I49" s="83" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -16954,143 +17226,143 @@
         <v>365</v>
       </c>
       <c r="C50" t="s">
+        <v>861</v>
+      </c>
+      <c r="D50" t="s">
         <v>868</v>
-      </c>
-      <c r="D50" t="s">
-        <v>871</v>
       </c>
       <c r="E50" t="s">
         <v>731</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" t="s">
         <v>647</v>
       </c>
       <c r="G50" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B51" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C51" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D51" t="s">
-        <v>887</v>
-      </c>
-      <c r="E51" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F51" s="83" t="s">
+        <v>867</v>
+      </c>
+      <c r="E51" t="s">
+        <v>731</v>
+      </c>
+      <c r="F51" t="s">
         <v>647</v>
       </c>
-      <c r="G51" s="83" t="s">
-        <v>795</v>
+      <c r="G51" s="54" t="s">
+        <v>797</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I51" s="83" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="C52" s="88" t="s">
-        <v>36</v>
+        <v>365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>866</v>
       </c>
       <c r="D52" t="s">
-        <v>886</v>
-      </c>
-      <c r="E52" s="88" t="str">
-        <f>$E$62</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F52" s="83" t="s">
+        <v>869</v>
+      </c>
+      <c r="E52" t="s">
+        <v>731</v>
+      </c>
+      <c r="F52" t="s">
         <v>647</v>
       </c>
-      <c r="G52" s="83" t="s">
-        <v>795</v>
+      <c r="G52" s="54" t="s">
+        <v>797</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I52" s="83" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B53" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C53" t="s">
-        <v>671</v>
+        <v>859</v>
       </c>
       <c r="D53" t="s">
-        <v>881</v>
-      </c>
-      <c r="E53" t="s">
-        <v>731</v>
-      </c>
-      <c r="F53" s="54" t="s">
+        <v>885</v>
+      </c>
+      <c r="E53" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F53" t="s">
         <v>647</v>
       </c>
-      <c r="G53" s="54" t="s">
-        <v>730</v>
+      <c r="G53" s="83" t="s">
+        <v>794</v>
       </c>
       <c r="H53" s="83" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="I53" s="83" t="s">
-        <v>885</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" t="s">
-        <v>672</v>
+        <v>614</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>882</v>
-      </c>
-      <c r="E54" t="s">
-        <v>731</v>
-      </c>
-      <c r="F54" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="E54" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F54" t="s">
         <v>647</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>730</v>
+      <c r="G54" s="83" t="s">
+        <v>794</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>885</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -17101,25 +17373,25 @@
         <v>365</v>
       </c>
       <c r="C55" t="s">
-        <v>875</v>
+        <v>671</v>
       </c>
       <c r="D55" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E55" t="s">
         <v>731</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" t="s">
         <v>647</v>
       </c>
       <c r="G55" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H55" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I55" s="83" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -17129,84 +17401,84 @@
       <c r="B56" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="105" t="s">
-        <v>876</v>
+      <c r="C56" t="s">
+        <v>672</v>
       </c>
       <c r="D56" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E56" t="s">
         <v>731</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" t="s">
         <v>647</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H56" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I56" s="83" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B57" s="54" t="s">
         <v>365</v>
       </c>
       <c r="C57" t="s">
-        <v>671</v>
+        <v>873</v>
       </c>
       <c r="D57" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="E57" t="s">
         <v>731</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" t="s">
         <v>647</v>
       </c>
       <c r="G57" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H57" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I57" s="83" t="s">
-        <v>814</v>
+        <v>883</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B58" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C58" t="s">
-        <v>672</v>
+      <c r="C58" s="89" t="s">
+        <v>874</v>
       </c>
       <c r="D58" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E58" t="s">
         <v>731</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" t="s">
         <v>647</v>
       </c>
       <c r="G58" s="54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="I58" s="83" t="s">
-        <v>814</v>
+        <v>883</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -17217,25 +17489,25 @@
         <v>365</v>
       </c>
       <c r="C59" t="s">
+        <v>671</v>
+      </c>
+      <c r="D59" t="s">
         <v>875</v>
-      </c>
-      <c r="D59" t="s">
-        <v>879</v>
       </c>
       <c r="E59" t="s">
         <v>731</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" t="s">
         <v>647</v>
       </c>
       <c r="G59" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H59" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I59" s="83" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -17245,63 +17517,84 @@
       <c r="B60" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="105" t="s">
+      <c r="C60" t="s">
+        <v>672</v>
+      </c>
+      <c r="D60" t="s">
         <v>876</v>
-      </c>
-      <c r="D60" t="s">
-        <v>880</v>
       </c>
       <c r="E60" t="s">
         <v>731</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" t="s">
         <v>647</v>
       </c>
       <c r="G60" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H60" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I60" s="83" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
+      <c r="A61" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" t="s">
+        <v>873</v>
+      </c>
+      <c r="D61" t="s">
+        <v>877</v>
+      </c>
+      <c r="E61" t="s">
+        <v>731</v>
+      </c>
+      <c r="F61" t="s">
+        <v>647</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H61" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="I61" s="83" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="54" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" t="s">
-        <v>463</v>
+        <v>365</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>874</v>
       </c>
       <c r="D62" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="E62" t="s">
-        <v>729</v>
-      </c>
-      <c r="F62" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F62" t="s">
         <v>647</v>
       </c>
       <c r="G62" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="H62" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="I62" s="54" t="s">
-        <v>795</v>
+        <v>797</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="I62" s="83" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -17312,25 +17605,25 @@
         <v>463</v>
       </c>
       <c r="C63" t="s">
-        <v>624</v>
+        <v>463</v>
       </c>
       <c r="D63" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E63" t="s">
         <v>729</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" t="s">
         <v>647</v>
       </c>
       <c r="G63" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I63" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -17341,109 +17634,109 @@
         <v>463</v>
       </c>
       <c r="C64" t="s">
-        <v>775</v>
+        <v>624</v>
       </c>
       <c r="D64" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="E64" t="s">
         <v>729</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" t="s">
         <v>647</v>
       </c>
       <c r="G64" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B65" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C65" t="s">
-        <v>776</v>
+        <v>886</v>
       </c>
       <c r="D65" t="s">
-        <v>786</v>
+        <v>888</v>
       </c>
       <c r="E65" t="s">
-        <v>729</v>
-      </c>
-      <c r="F65" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F65" t="s">
         <v>647</v>
       </c>
       <c r="G65" s="54" t="s">
-        <v>795</v>
+        <v>730</v>
       </c>
       <c r="H65" s="54" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="I65" s="54" t="s">
-        <v>795</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>614</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>887</v>
       </c>
       <c r="D66" t="s">
-        <v>777</v>
+        <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>729</v>
-      </c>
-      <c r="F66" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="F66" t="s">
         <v>647</v>
       </c>
       <c r="G66" s="54" t="s">
-        <v>795</v>
+        <v>730</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="I66" s="54" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B67" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C67" t="s">
-        <v>725</v>
+        <v>886</v>
       </c>
       <c r="D67" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="E67" t="s">
         <v>731</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" t="s">
         <v>647</v>
       </c>
       <c r="G67" s="54" t="s">
-        <v>730</v>
+        <v>797</v>
       </c>
       <c r="H67" s="54" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="I67" s="54" t="s">
         <v>811</v>
@@ -17451,176 +17744,176 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="54" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B68" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C68" t="s">
-        <v>778</v>
+        <v>887</v>
       </c>
       <c r="D68" t="s">
-        <v>788</v>
+        <v>950</v>
       </c>
       <c r="E68" t="s">
         <v>731</v>
       </c>
-      <c r="F68" s="54" t="s">
+      <c r="F68" t="s">
         <v>647</v>
       </c>
       <c r="G68" s="54" t="s">
-        <v>730</v>
+        <v>797</v>
       </c>
       <c r="H68" s="54" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B69" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C69" t="s">
-        <v>724</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="E69" t="s">
-        <v>731</v>
-      </c>
-      <c r="F69" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F69" t="s">
         <v>647</v>
       </c>
       <c r="G69" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B70" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>779</v>
+        <v>624</v>
       </c>
       <c r="D70" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E70" t="s">
-        <v>731</v>
-      </c>
-      <c r="F70" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F70" t="s">
         <v>647</v>
       </c>
       <c r="G70" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H70" s="54" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="I70" s="54" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B71" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C71" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D71" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="E71" t="s">
-        <v>731</v>
-      </c>
-      <c r="F71" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F71" t="s">
         <v>647</v>
       </c>
       <c r="G71" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H71" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I71" t="s">
-        <v>723</v>
+        <v>794</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B72" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C72" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D72" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E72" t="s">
-        <v>731</v>
-      </c>
-      <c r="F72" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" t="s">
         <v>647</v>
       </c>
       <c r="G72" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H72" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I72" t="s">
-        <v>723</v>
+        <v>794</v>
+      </c>
+      <c r="I72" s="54" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>463</v>
+        <v>614</v>
       </c>
       <c r="C73" t="s">
-        <v>803</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="E73" t="s">
-        <v>731</v>
-      </c>
-      <c r="F73" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F73" t="s">
         <v>647</v>
       </c>
       <c r="G73" s="54" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="H73" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I73" t="s">
-        <v>723</v>
+        <v>794</v>
+      </c>
+      <c r="I73" s="54" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -17631,25 +17924,25 @@
         <v>463</v>
       </c>
       <c r="C74" t="s">
-        <v>782</v>
+        <v>725</v>
       </c>
       <c r="D74" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E74" t="s">
         <v>731</v>
       </c>
-      <c r="F74" s="54" t="s">
+      <c r="F74" t="s">
         <v>647</v>
       </c>
       <c r="G74" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H74" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I74" s="54" t="s">
         <v>809</v>
-      </c>
-      <c r="I74" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -17660,186 +17953,1697 @@
         <v>463</v>
       </c>
       <c r="C75" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D75" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E75" t="s">
         <v>731</v>
       </c>
-      <c r="F75" s="54" t="s">
+      <c r="F75" t="s">
         <v>647</v>
       </c>
       <c r="G75" s="54" t="s">
         <v>730</v>
       </c>
       <c r="H75" s="54" t="s">
-        <v>809</v>
-      </c>
-      <c r="I75" t="s">
-        <v>723</v>
+        <v>808</v>
+      </c>
+      <c r="I75" s="54" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B76" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C76" t="s">
-        <v>780</v>
-      </c>
-      <c r="D76" s="54" t="s">
-        <v>797</v>
+        <v>922</v>
+      </c>
+      <c r="D76" t="s">
+        <v>789</v>
       </c>
       <c r="E76" t="s">
         <v>731</v>
       </c>
-      <c r="F76" s="54" t="s">
+      <c r="F76" t="s">
         <v>647</v>
       </c>
       <c r="G76" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H76" t="s">
-        <v>798</v>
-      </c>
-      <c r="I76" t="s">
-        <v>813</v>
+        <v>730</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I76" s="54" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B77" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C77" t="s">
-        <v>781</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>799</v>
+        <v>923</v>
+      </c>
+      <c r="D77" t="s">
+        <v>788</v>
       </c>
       <c r="E77" t="s">
         <v>731</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" t="s">
         <v>647</v>
       </c>
       <c r="G77" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H77" t="s">
-        <v>798</v>
-      </c>
-      <c r="I77" t="s">
-        <v>813</v>
+        <v>730</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="I77" s="54" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B78" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C78" t="s">
-        <v>803</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>800</v>
+        <v>779</v>
+      </c>
+      <c r="D78" t="s">
+        <v>790</v>
       </c>
       <c r="E78" t="s">
         <v>731</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" t="s">
         <v>647</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H78" t="s">
-        <v>798</v>
+        <v>730</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>807</v>
       </c>
       <c r="I78" t="s">
-        <v>813</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C79" t="s">
-        <v>782</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>801</v>
+        <v>780</v>
+      </c>
+      <c r="D79" t="s">
+        <v>791</v>
       </c>
       <c r="E79" t="s">
         <v>731</v>
       </c>
-      <c r="F79" s="54" t="s">
+      <c r="F79" t="s">
         <v>647</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="H79" t="s">
-        <v>798</v>
+        <v>730</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>807</v>
       </c>
       <c r="I79" t="s">
-        <v>813</v>
+        <v>723</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="54" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B80" s="54" t="s">
         <v>463</v>
       </c>
       <c r="C80" t="s">
-        <v>783</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>805</v>
+        <v>929</v>
+      </c>
+      <c r="D80" t="s">
+        <v>802</v>
       </c>
       <c r="E80" t="s">
         <v>731</v>
       </c>
-      <c r="F80" s="54" t="s">
+      <c r="F80" t="s">
         <v>647</v>
       </c>
       <c r="G80" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>807</v>
+      </c>
+      <c r="I80" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C81" t="s">
+        <v>781</v>
+      </c>
+      <c r="D81" t="s">
+        <v>801</v>
+      </c>
+      <c r="E81" t="s">
+        <v>731</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>807</v>
+      </c>
+      <c r="I81" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" t="s">
+        <v>782</v>
+      </c>
+      <c r="D82" t="s">
+        <v>792</v>
+      </c>
+      <c r="E82" t="s">
+        <v>731</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>807</v>
+      </c>
+      <c r="I82" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C83" t="s">
+        <v>930</v>
+      </c>
+      <c r="D83" t="s">
+        <v>802</v>
+      </c>
+      <c r="E83" t="s">
+        <v>731</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>807</v>
+      </c>
+      <c r="I83" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" t="s">
+        <v>779</v>
+      </c>
+      <c r="D84" t="s">
+        <v>796</v>
+      </c>
+      <c r="E84" t="s">
+        <v>731</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H84" t="s">
+        <v>797</v>
+      </c>
+      <c r="I84" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C85" t="s">
+        <v>780</v>
+      </c>
+      <c r="D85" t="s">
         <v>798</v>
       </c>
-      <c r="H80" t="s">
-        <v>798</v>
-      </c>
-      <c r="I80" t="s">
-        <v>813</v>
+      <c r="E85" t="s">
+        <v>731</v>
+      </c>
+      <c r="F85" t="s">
+        <v>647</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H85" t="s">
+        <v>797</v>
+      </c>
+      <c r="I85" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C86" t="s">
+        <v>929</v>
+      </c>
+      <c r="D86" t="s">
+        <v>799</v>
+      </c>
+      <c r="E86" t="s">
+        <v>731</v>
+      </c>
+      <c r="F86" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H86" t="s">
+        <v>797</v>
+      </c>
+      <c r="I86" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C87" t="s">
+        <v>781</v>
+      </c>
+      <c r="D87" t="s">
+        <v>800</v>
+      </c>
+      <c r="E87" t="s">
+        <v>731</v>
+      </c>
+      <c r="F87" t="s">
+        <v>647</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H87" t="s">
+        <v>797</v>
+      </c>
+      <c r="I87" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C88" t="s">
+        <v>782</v>
+      </c>
+      <c r="D88" t="s">
+        <v>803</v>
+      </c>
+      <c r="E88" t="s">
+        <v>731</v>
+      </c>
+      <c r="F88" t="s">
+        <v>647</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H88" t="s">
+        <v>797</v>
+      </c>
+      <c r="I88" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89" t="s">
+        <v>930</v>
+      </c>
+      <c r="D89" t="s">
+        <v>944</v>
+      </c>
+      <c r="E89" t="s">
+        <v>731</v>
+      </c>
+      <c r="F89" t="s">
+        <v>647</v>
+      </c>
+      <c r="G89" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H89" t="s">
+        <v>797</v>
+      </c>
+      <c r="I89" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" t="s">
+        <v>463</v>
+      </c>
+      <c r="D90" t="s">
+        <v>774</v>
+      </c>
+      <c r="E90" t="s">
+        <v>729</v>
+      </c>
+      <c r="F90" t="s">
+        <v>647</v>
+      </c>
+      <c r="G90" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I90" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D91" t="s">
+        <v>773</v>
+      </c>
+      <c r="E91" t="s">
+        <v>729</v>
+      </c>
+      <c r="F91" t="s">
+        <v>647</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H91" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I91" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C92" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E92" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F92" t="s">
+        <v>647</v>
+      </c>
+      <c r="G92" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I92" s="83" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C93" t="s">
+        <v>932</v>
+      </c>
+      <c r="D93" t="s">
+        <v>933</v>
+      </c>
+      <c r="E93" t="s">
+        <v>731</v>
+      </c>
+      <c r="F93" t="s">
+        <v>647</v>
+      </c>
+      <c r="G93" t="s">
+        <v>730</v>
+      </c>
+      <c r="H93" t="s">
+        <v>807</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C94" t="s">
+        <v>932</v>
+      </c>
+      <c r="D94" t="s">
+        <v>934</v>
+      </c>
+      <c r="E94" t="s">
+        <v>731</v>
+      </c>
+      <c r="F94" t="s">
+        <v>647</v>
+      </c>
+      <c r="G94" t="s">
+        <v>797</v>
+      </c>
+      <c r="H94" t="s">
+        <v>797</v>
+      </c>
+      <c r="I94" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C95" s="89" t="s">
+        <v>554</v>
+      </c>
+      <c r="D95" t="s">
+        <v>899</v>
+      </c>
+      <c r="E95" t="s">
+        <v>729</v>
+      </c>
+      <c r="F95" t="s">
+        <v>647</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I95" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C96" s="89" t="s">
+        <v>893</v>
+      </c>
+      <c r="D96" t="s">
+        <v>900</v>
+      </c>
+      <c r="E96" t="s">
+        <v>729</v>
+      </c>
+      <c r="F96" t="s">
+        <v>647</v>
+      </c>
+      <c r="G96" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H96" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I96" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C97" s="89" t="s">
+        <v>894</v>
+      </c>
+      <c r="D97" t="s">
+        <v>901</v>
+      </c>
+      <c r="E97" t="s">
+        <v>731</v>
+      </c>
+      <c r="F97" t="s">
+        <v>647</v>
+      </c>
+      <c r="G97" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H97" s="106" t="s">
+        <v>895</v>
+      </c>
+      <c r="I97" s="106" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C98" s="89" t="s">
+        <v>896</v>
+      </c>
+      <c r="D98" t="s">
+        <v>902</v>
+      </c>
+      <c r="E98" t="s">
+        <v>731</v>
+      </c>
+      <c r="F98" t="s">
+        <v>647</v>
+      </c>
+      <c r="G98" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="H98" s="106" t="s">
+        <v>895</v>
+      </c>
+      <c r="I98" s="106" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C99" s="89" t="s">
+        <v>894</v>
+      </c>
+      <c r="D99" s="89" t="s">
+        <v>897</v>
+      </c>
+      <c r="E99" t="s">
+        <v>731</v>
+      </c>
+      <c r="F99" t="s">
+        <v>647</v>
+      </c>
+      <c r="G99" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H99" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="I99" s="106" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" s="89" t="s">
+        <v>896</v>
+      </c>
+      <c r="D100" s="89" t="s">
+        <v>949</v>
+      </c>
+      <c r="E100" t="s">
+        <v>731</v>
+      </c>
+      <c r="F100" t="s">
+        <v>647</v>
+      </c>
+      <c r="G100" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>797</v>
+      </c>
+      <c r="I100" s="106" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>924</v>
+      </c>
+      <c r="E101" t="s">
+        <v>729</v>
+      </c>
+      <c r="F101" t="s">
+        <v>647</v>
+      </c>
+      <c r="G101" t="s">
+        <v>794</v>
+      </c>
+      <c r="H101" t="s">
+        <v>794</v>
+      </c>
+      <c r="I101" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B102" t="s">
+        <v>499</v>
+      </c>
+      <c r="C102" t="s">
+        <v>942</v>
+      </c>
+      <c r="D102" t="s">
+        <v>925</v>
+      </c>
+      <c r="E102" t="s">
+        <v>729</v>
+      </c>
+      <c r="F102" t="s">
+        <v>647</v>
+      </c>
+      <c r="G102" t="s">
+        <v>794</v>
+      </c>
+      <c r="H102" t="s">
+        <v>794</v>
+      </c>
+      <c r="I102" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B103" t="s">
+        <v>499</v>
+      </c>
+      <c r="C103" t="s">
+        <v>916</v>
+      </c>
+      <c r="D103" t="s">
+        <v>917</v>
+      </c>
+      <c r="E103" t="s">
+        <v>729</v>
+      </c>
+      <c r="F103" t="s">
+        <v>647</v>
+      </c>
+      <c r="G103" t="s">
+        <v>794</v>
+      </c>
+      <c r="H103" t="s">
+        <v>794</v>
+      </c>
+      <c r="I103" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" t="s">
+        <v>918</v>
+      </c>
+      <c r="D104" t="s">
+        <v>919</v>
+      </c>
+      <c r="E104" t="s">
+        <v>729</v>
+      </c>
+      <c r="F104" t="s">
+        <v>647</v>
+      </c>
+      <c r="G104" t="s">
+        <v>794</v>
+      </c>
+      <c r="H104" t="s">
+        <v>794</v>
+      </c>
+      <c r="I104" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B105" t="s">
+        <v>614</v>
+      </c>
+      <c r="C105" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" t="s">
+        <v>777</v>
+      </c>
+      <c r="E105" t="s">
+        <v>729</v>
+      </c>
+      <c r="F105" t="s">
+        <v>647</v>
+      </c>
+      <c r="G105" t="s">
+        <v>794</v>
+      </c>
+      <c r="H105" t="s">
+        <v>794</v>
+      </c>
+      <c r="I105" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>659</v>
+      </c>
+      <c r="B106" t="s">
+        <v>499</v>
+      </c>
+      <c r="C106" t="s">
+        <v>903</v>
+      </c>
+      <c r="D106" t="s">
+        <v>786</v>
+      </c>
+      <c r="E106" t="s">
+        <v>731</v>
+      </c>
+      <c r="F106" t="s">
+        <v>647</v>
+      </c>
+      <c r="G106" t="s">
+        <v>730</v>
+      </c>
+      <c r="H106" t="s">
+        <v>808</v>
+      </c>
+      <c r="I106" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>659</v>
+      </c>
+      <c r="B107" t="s">
+        <v>499</v>
+      </c>
+      <c r="C107" t="s">
+        <v>904</v>
+      </c>
+      <c r="D107" t="s">
+        <v>787</v>
+      </c>
+      <c r="E107" t="s">
+        <v>731</v>
+      </c>
+      <c r="F107" t="s">
+        <v>647</v>
+      </c>
+      <c r="G107" t="s">
+        <v>730</v>
+      </c>
+      <c r="H107" t="s">
+        <v>808</v>
+      </c>
+      <c r="I107" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>659</v>
+      </c>
+      <c r="B108" t="s">
+        <v>499</v>
+      </c>
+      <c r="C108" t="s">
+        <v>920</v>
+      </c>
+      <c r="D108" t="s">
+        <v>789</v>
+      </c>
+      <c r="E108" t="s">
+        <v>731</v>
+      </c>
+      <c r="F108" t="s">
+        <v>647</v>
+      </c>
+      <c r="G108" t="s">
+        <v>730</v>
+      </c>
+      <c r="H108" t="s">
+        <v>808</v>
+      </c>
+      <c r="I108" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>659</v>
+      </c>
+      <c r="B109" t="s">
+        <v>499</v>
+      </c>
+      <c r="C109" t="s">
+        <v>921</v>
+      </c>
+      <c r="D109" t="s">
+        <v>788</v>
+      </c>
+      <c r="E109" t="s">
+        <v>731</v>
+      </c>
+      <c r="F109" t="s">
+        <v>647</v>
+      </c>
+      <c r="G109" t="s">
+        <v>730</v>
+      </c>
+      <c r="H109" t="s">
+        <v>808</v>
+      </c>
+      <c r="I109" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>659</v>
+      </c>
+      <c r="B110" t="s">
+        <v>499</v>
+      </c>
+      <c r="C110" t="s">
+        <v>905</v>
+      </c>
+      <c r="D110" t="s">
+        <v>790</v>
+      </c>
+      <c r="E110" t="s">
+        <v>731</v>
+      </c>
+      <c r="F110" t="s">
+        <v>647</v>
+      </c>
+      <c r="G110" t="s">
+        <v>730</v>
+      </c>
+      <c r="H110" t="s">
+        <v>906</v>
+      </c>
+      <c r="I110" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>659</v>
+      </c>
+      <c r="B111" t="s">
+        <v>499</v>
+      </c>
+      <c r="C111" t="s">
+        <v>907</v>
+      </c>
+      <c r="D111" t="s">
+        <v>791</v>
+      </c>
+      <c r="E111" t="s">
+        <v>731</v>
+      </c>
+      <c r="F111" t="s">
+        <v>647</v>
+      </c>
+      <c r="G111" t="s">
+        <v>730</v>
+      </c>
+      <c r="H111" t="s">
+        <v>906</v>
+      </c>
+      <c r="I111" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>659</v>
+      </c>
+      <c r="B112" t="s">
+        <v>499</v>
+      </c>
+      <c r="C112" t="s">
+        <v>926</v>
+      </c>
+      <c r="D112" t="s">
+        <v>928</v>
+      </c>
+      <c r="E112" t="s">
+        <v>731</v>
+      </c>
+      <c r="F112" t="s">
+        <v>647</v>
+      </c>
+      <c r="G112" t="s">
+        <v>730</v>
+      </c>
+      <c r="H112" t="s">
+        <v>906</v>
+      </c>
+      <c r="I112" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>659</v>
+      </c>
+      <c r="B113" t="s">
+        <v>499</v>
+      </c>
+      <c r="C113" t="s">
+        <v>908</v>
+      </c>
+      <c r="D113" t="s">
+        <v>801</v>
+      </c>
+      <c r="E113" t="s">
+        <v>731</v>
+      </c>
+      <c r="F113" t="s">
+        <v>647</v>
+      </c>
+      <c r="G113" t="s">
+        <v>730</v>
+      </c>
+      <c r="H113" t="s">
+        <v>906</v>
+      </c>
+      <c r="I113" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" t="s">
+        <v>499</v>
+      </c>
+      <c r="C114" t="s">
+        <v>909</v>
+      </c>
+      <c r="D114" t="s">
+        <v>792</v>
+      </c>
+      <c r="E114" t="s">
+        <v>731</v>
+      </c>
+      <c r="F114" t="s">
+        <v>647</v>
+      </c>
+      <c r="G114" t="s">
+        <v>730</v>
+      </c>
+      <c r="H114" t="s">
+        <v>906</v>
+      </c>
+      <c r="I114" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>659</v>
+      </c>
+      <c r="B115" t="s">
+        <v>499</v>
+      </c>
+      <c r="C115" t="s">
+        <v>927</v>
+      </c>
+      <c r="D115" t="s">
+        <v>802</v>
+      </c>
+      <c r="E115" t="s">
+        <v>731</v>
+      </c>
+      <c r="F115" t="s">
+        <v>647</v>
+      </c>
+      <c r="G115" t="s">
+        <v>730</v>
+      </c>
+      <c r="H115" t="s">
+        <v>906</v>
+      </c>
+      <c r="I115" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>646</v>
+      </c>
+      <c r="B116" t="s">
+        <v>499</v>
+      </c>
+      <c r="C116" t="s">
+        <v>905</v>
+      </c>
+      <c r="D116" t="s">
+        <v>910</v>
+      </c>
+      <c r="E116" t="s">
+        <v>731</v>
+      </c>
+      <c r="F116" t="s">
+        <v>647</v>
+      </c>
+      <c r="G116" t="s">
+        <v>797</v>
+      </c>
+      <c r="H116" t="s">
+        <v>797</v>
+      </c>
+      <c r="I116" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>646</v>
+      </c>
+      <c r="B117" t="s">
+        <v>499</v>
+      </c>
+      <c r="C117" t="s">
+        <v>907</v>
+      </c>
+      <c r="D117" t="s">
+        <v>912</v>
+      </c>
+      <c r="E117" t="s">
+        <v>731</v>
+      </c>
+      <c r="F117" t="s">
+        <v>647</v>
+      </c>
+      <c r="G117" t="s">
+        <v>797</v>
+      </c>
+      <c r="H117" t="s">
+        <v>797</v>
+      </c>
+      <c r="I117" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>646</v>
+      </c>
+      <c r="B118" t="s">
+        <v>499</v>
+      </c>
+      <c r="C118" t="s">
+        <v>926</v>
+      </c>
+      <c r="D118" t="s">
+        <v>913</v>
+      </c>
+      <c r="E118" t="s">
+        <v>731</v>
+      </c>
+      <c r="F118" t="s">
+        <v>647</v>
+      </c>
+      <c r="G118" t="s">
+        <v>797</v>
+      </c>
+      <c r="H118" t="s">
+        <v>797</v>
+      </c>
+      <c r="I118" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>646</v>
+      </c>
+      <c r="B119" t="s">
+        <v>499</v>
+      </c>
+      <c r="C119" t="s">
+        <v>908</v>
+      </c>
+      <c r="D119" t="s">
+        <v>914</v>
+      </c>
+      <c r="E119" t="s">
+        <v>731</v>
+      </c>
+      <c r="F119" t="s">
+        <v>647</v>
+      </c>
+      <c r="G119" t="s">
+        <v>797</v>
+      </c>
+      <c r="H119" t="s">
+        <v>797</v>
+      </c>
+      <c r="I119" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B120" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C120" t="s">
+        <v>909</v>
+      </c>
+      <c r="D120" t="s">
+        <v>915</v>
+      </c>
+      <c r="E120" t="s">
+        <v>731</v>
+      </c>
+      <c r="F120" t="s">
+        <v>647</v>
+      </c>
+      <c r="G120" t="s">
+        <v>797</v>
+      </c>
+      <c r="H120" t="s">
+        <v>797</v>
+      </c>
+      <c r="I120" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>646</v>
+      </c>
+      <c r="B121" t="s">
+        <v>499</v>
+      </c>
+      <c r="C121" t="s">
+        <v>927</v>
+      </c>
+      <c r="D121" t="s">
+        <v>945</v>
+      </c>
+      <c r="E121" t="s">
+        <v>731</v>
+      </c>
+      <c r="F121" t="s">
+        <v>647</v>
+      </c>
+      <c r="G121" t="s">
+        <v>797</v>
+      </c>
+      <c r="H121" t="s">
+        <v>797</v>
+      </c>
+      <c r="I121" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B122" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" t="s">
+        <v>924</v>
+      </c>
+      <c r="E122" t="s">
+        <v>729</v>
+      </c>
+      <c r="F122" t="s">
+        <v>647</v>
+      </c>
+      <c r="G122" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H122" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I122" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C123" t="s">
+        <v>942</v>
+      </c>
+      <c r="D123" t="s">
+        <v>925</v>
+      </c>
+      <c r="E123" t="s">
+        <v>729</v>
+      </c>
+      <c r="F123" t="s">
+        <v>647</v>
+      </c>
+      <c r="G123" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="I123" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="C124" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>884</v>
+      </c>
+      <c r="E124" s="88" t="str">
+        <f>$E$69</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F124" t="s">
+        <v>647</v>
+      </c>
+      <c r="G124" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I124" s="83" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" t="s">
+        <v>935</v>
+      </c>
+      <c r="D125" t="s">
+        <v>943</v>
+      </c>
+      <c r="E125" t="s">
+        <v>731</v>
+      </c>
+      <c r="F125" t="s">
+        <v>647</v>
+      </c>
+      <c r="G125" t="s">
+        <v>730</v>
+      </c>
+      <c r="H125" t="s">
+        <v>906</v>
+      </c>
+      <c r="I125" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126" t="s">
+        <v>935</v>
+      </c>
+      <c r="D126" t="s">
+        <v>946</v>
+      </c>
+      <c r="E126" t="s">
+        <v>731</v>
+      </c>
+      <c r="F126" t="s">
+        <v>647</v>
+      </c>
+      <c r="G126" t="s">
+        <v>797</v>
+      </c>
+      <c r="H126" t="s">
+        <v>797</v>
+      </c>
+      <c r="I126" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>645</v>
+      </c>
+      <c r="B127" t="s">
+        <v>499</v>
+      </c>
+      <c r="C127" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" t="s">
+        <v>924</v>
+      </c>
+      <c r="E127" t="s">
+        <v>729</v>
+      </c>
+      <c r="F127" t="s">
+        <v>647</v>
+      </c>
+      <c r="G127" t="s">
+        <v>794</v>
+      </c>
+      <c r="H127" t="s">
+        <v>794</v>
+      </c>
+      <c r="I127" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>645</v>
+      </c>
+      <c r="B128" t="s">
+        <v>499</v>
+      </c>
+      <c r="C128" t="s">
+        <v>942</v>
+      </c>
+      <c r="D128" t="s">
+        <v>925</v>
+      </c>
+      <c r="E128" t="s">
+        <v>729</v>
+      </c>
+      <c r="F128" t="s">
+        <v>647</v>
+      </c>
+      <c r="G128" t="s">
+        <v>794</v>
+      </c>
+      <c r="H128" t="s">
+        <v>794</v>
+      </c>
+      <c r="I128" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>659</v>
+      </c>
+      <c r="B129" t="s">
+        <v>499</v>
+      </c>
+      <c r="C129" t="s">
+        <v>936</v>
+      </c>
+      <c r="D129" t="s">
+        <v>940</v>
+      </c>
+      <c r="E129" t="s">
+        <v>731</v>
+      </c>
+      <c r="F129" t="s">
+        <v>647</v>
+      </c>
+      <c r="G129" t="s">
+        <v>730</v>
+      </c>
+      <c r="H129" t="s">
+        <v>906</v>
+      </c>
+      <c r="I129" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>659</v>
+      </c>
+      <c r="B130" t="s">
+        <v>499</v>
+      </c>
+      <c r="C130" t="s">
+        <v>937</v>
+      </c>
+      <c r="D130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E130" t="s">
+        <v>731</v>
+      </c>
+      <c r="F130" t="s">
+        <v>647</v>
+      </c>
+      <c r="G130" t="s">
+        <v>730</v>
+      </c>
+      <c r="H130" t="s">
+        <v>906</v>
+      </c>
+      <c r="I130" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>646</v>
+      </c>
+      <c r="B131" t="s">
+        <v>499</v>
+      </c>
+      <c r="C131" t="s">
+        <v>936</v>
+      </c>
+      <c r="D131" t="s">
+        <v>947</v>
+      </c>
+      <c r="E131" t="s">
+        <v>731</v>
+      </c>
+      <c r="F131" t="s">
+        <v>647</v>
+      </c>
+      <c r="G131" t="s">
+        <v>797</v>
+      </c>
+      <c r="H131" t="s">
+        <v>797</v>
+      </c>
+      <c r="I131" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>646</v>
+      </c>
+      <c r="B132" t="s">
+        <v>499</v>
+      </c>
+      <c r="C132" t="s">
+        <v>937</v>
+      </c>
+      <c r="D132" t="s">
+        <v>948</v>
+      </c>
+      <c r="E132" t="s">
+        <v>731</v>
+      </c>
+      <c r="F132" t="s">
+        <v>647</v>
+      </c>
+      <c r="G132" t="s">
+        <v>797</v>
+      </c>
+      <c r="H132" t="s">
+        <v>797</v>
+      </c>
+      <c r="I132" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A35 A62:A80 A2:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A118 A119:A1048576">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F118 F119:F1048576">
+      <formula1>"Datetime,Categorical,Numeric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118 B119:B1048576">
       <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80">
-      <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17895,10 +19699,95 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18243,94 +20132,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18342,14 +20146,34 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18371,30 +20195,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -442,6 +442,113 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sander Vandevenne</author>
+  </authors>
+  <commentList>
+    <comment ref="C97" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expand computation of statistics
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expand computation of statistics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expand computation of statistics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C100" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sander Vandevenne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Expand computation of statistics</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="951">
   <si>
@@ -3189,10 +3296,6 @@
     <t>backtesting</t>
   </si>
   <si>
-    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 2.0      cell: V8 </t>
-  </si>
-  <si>
     <t>LGDD_realised</t>
   </si>
   <si>
@@ -3203,10 +3306,6 @@
   </si>
   <si>
     <t>LGDD_backtesting_perGrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 2.0      cell: V8 </t>
   </si>
   <si>
     <t>LGDD_toExcel</t>
@@ -3364,27 +3463,36 @@
     <t>workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx sheet: 5.2      cell: E40</t>
   </si>
   <si>
+    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: AD8:AF8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: Range(.[AD10], .[AF10].End(xlDown)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: H7:J7; O7:Q7; V7:X7; AC7:AE7; AJ7:AL7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: Range(.[H9], .[J9].End(xlDown)) ; Range(.[O9], .[Q9].End(xlDown)); Range(.[V9], .[X9].End(xlDown)); Range(.[AC9], .[AE9].End(xlDown)); Range(.[AJ9], .[AL9].End(xlDown)) 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 3.1      cell: U8 </t>
+sheet: 3.1      cell: T8:V8 </t>
   </si>
   <si>
     <t xml:space="preserve">workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 3.1      cell: Range(.[U10], .[U10].End(xlDown)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">workbook: LEICode_LGDD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 2.0      cell: Range(.[V10], .[V10].End(xlDown)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">workbook: LEICode_LGD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
-sheet: 2.0      cell: Range(.[V10], .[V10].End(xlDown)) </t>
+sheet: 3.1      cell: Range(.[T10], .[V10].End(xlDown)) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3594,6 +3702,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4473,6 +4594,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4521,7 +4643,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7809,74 +7930,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -7936,12 +8057,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -15769,12 +15890,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16468,10 +16589,10 @@
         <v>365</v>
       </c>
       <c r="C24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E24" t="s">
         <v>731</v>
@@ -16642,10 +16763,10 @@
         <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D30" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E30" t="s">
         <v>731</v>
@@ -17724,7 +17845,7 @@
         <v>886</v>
       </c>
       <c r="D67" t="s">
-        <v>892</v>
+        <v>945</v>
       </c>
       <c r="E67" t="s">
         <v>731</v>
@@ -17753,7 +17874,7 @@
         <v>887</v>
       </c>
       <c r="D68" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E68" t="s">
         <v>731</v>
@@ -17982,7 +18103,7 @@
         <v>463</v>
       </c>
       <c r="C76" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D76" t="s">
         <v>789</v>
@@ -18011,7 +18132,7 @@
         <v>463</v>
       </c>
       <c r="C77" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D77" t="s">
         <v>788</v>
@@ -18098,7 +18219,7 @@
         <v>463</v>
       </c>
       <c r="C80" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D80" t="s">
         <v>802</v>
@@ -18185,7 +18306,7 @@
         <v>463</v>
       </c>
       <c r="C83" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D83" t="s">
         <v>802</v>
@@ -18272,7 +18393,7 @@
         <v>463</v>
       </c>
       <c r="C86" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D86" t="s">
         <v>799</v>
@@ -18359,10 +18480,10 @@
         <v>463</v>
       </c>
       <c r="C89" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D89" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E89" t="s">
         <v>731</v>
@@ -18476,10 +18597,10 @@
         <v>463</v>
       </c>
       <c r="C93" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D93" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E93" t="s">
         <v>731</v>
@@ -18505,10 +18626,10 @@
         <v>463</v>
       </c>
       <c r="C94" t="s">
+        <v>930</v>
+      </c>
+      <c r="D94" t="s">
         <v>932</v>
-      </c>
-      <c r="D94" t="s">
-        <v>934</v>
       </c>
       <c r="E94" t="s">
         <v>731</v>
@@ -18537,7 +18658,7 @@
         <v>554</v>
       </c>
       <c r="D95" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E95" t="s">
         <v>729</v>
@@ -18563,10 +18684,10 @@
         <v>554</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D96" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E96" t="s">
         <v>729</v>
@@ -18592,10 +18713,10 @@
         <v>554</v>
       </c>
       <c r="C97" s="89" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D97" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E97" t="s">
         <v>731</v>
@@ -18606,10 +18727,10 @@
       <c r="G97" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H97" s="106" t="s">
-        <v>895</v>
-      </c>
-      <c r="I97" s="106" t="s">
+      <c r="H97" s="90" t="s">
+        <v>894</v>
+      </c>
+      <c r="I97" s="90" t="s">
         <v>891</v>
       </c>
     </row>
@@ -18621,10 +18742,10 @@
         <v>554</v>
       </c>
       <c r="C98" s="89" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D98" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E98" t="s">
         <v>731</v>
@@ -18635,10 +18756,10 @@
       <c r="G98" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="H98" s="106" t="s">
-        <v>895</v>
-      </c>
-      <c r="I98" s="106" t="s">
+      <c r="H98" s="90" t="s">
+        <v>894</v>
+      </c>
+      <c r="I98" s="90" t="s">
         <v>890</v>
       </c>
     </row>
@@ -18650,10 +18771,10 @@
         <v>554</v>
       </c>
       <c r="C99" s="89" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D99" s="89" t="s">
-        <v>897</v>
+        <v>947</v>
       </c>
       <c r="E99" t="s">
         <v>731</v>
@@ -18664,11 +18785,11 @@
       <c r="G99" s="54" t="s">
         <v>797</v>
       </c>
-      <c r="H99" s="54" t="s">
+      <c r="H99" s="90" t="s">
         <v>797</v>
       </c>
-      <c r="I99" s="106" t="s">
-        <v>898</v>
+      <c r="I99" s="90" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -18679,10 +18800,10 @@
         <v>554</v>
       </c>
       <c r="C100" s="89" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D100" s="89" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E100" t="s">
         <v>731</v>
@@ -18693,11 +18814,11 @@
       <c r="G100" s="54" t="s">
         <v>797</v>
       </c>
-      <c r="H100" s="54" t="s">
+      <c r="H100" s="90" t="s">
         <v>797</v>
       </c>
-      <c r="I100" s="106" t="s">
-        <v>898</v>
+      <c r="I100" s="90" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -18711,7 +18832,7 @@
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E101" t="s">
         <v>729</v>
@@ -18737,10 +18858,10 @@
         <v>499</v>
       </c>
       <c r="C102" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D102" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E102" t="s">
         <v>729</v>
@@ -18766,10 +18887,10 @@
         <v>499</v>
       </c>
       <c r="C103" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D103" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E103" t="s">
         <v>729</v>
@@ -18795,10 +18916,10 @@
         <v>499</v>
       </c>
       <c r="C104" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D104" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E104" t="s">
         <v>729</v>
@@ -18853,7 +18974,7 @@
         <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D106" t="s">
         <v>786</v>
@@ -18882,7 +19003,7 @@
         <v>499</v>
       </c>
       <c r="C107" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D107" t="s">
         <v>787</v>
@@ -18911,7 +19032,7 @@
         <v>499</v>
       </c>
       <c r="C108" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D108" t="s">
         <v>789</v>
@@ -18940,7 +19061,7 @@
         <v>499</v>
       </c>
       <c r="C109" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D109" t="s">
         <v>788</v>
@@ -18969,7 +19090,7 @@
         <v>499</v>
       </c>
       <c r="C110" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D110" t="s">
         <v>790</v>
@@ -18984,7 +19105,7 @@
         <v>730</v>
       </c>
       <c r="H110" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I110" t="s">
         <v>721</v>
@@ -18998,7 +19119,7 @@
         <v>499</v>
       </c>
       <c r="C111" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D111" t="s">
         <v>791</v>
@@ -19013,7 +19134,7 @@
         <v>730</v>
       </c>
       <c r="H111" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I111" t="s">
         <v>721</v>
@@ -19027,10 +19148,10 @@
         <v>499</v>
       </c>
       <c r="C112" t="s">
+        <v>924</v>
+      </c>
+      <c r="D112" t="s">
         <v>926</v>
-      </c>
-      <c r="D112" t="s">
-        <v>928</v>
       </c>
       <c r="E112" t="s">
         <v>731</v>
@@ -19042,7 +19163,7 @@
         <v>730</v>
       </c>
       <c r="H112" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I112" t="s">
         <v>721</v>
@@ -19056,7 +19177,7 @@
         <v>499</v>
       </c>
       <c r="C113" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D113" t="s">
         <v>801</v>
@@ -19071,7 +19192,7 @@
         <v>730</v>
       </c>
       <c r="H113" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I113" t="s">
         <v>721</v>
@@ -19085,7 +19206,7 @@
         <v>499</v>
       </c>
       <c r="C114" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D114" t="s">
         <v>792</v>
@@ -19100,7 +19221,7 @@
         <v>730</v>
       </c>
       <c r="H114" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I114" t="s">
         <v>721</v>
@@ -19114,7 +19235,7 @@
         <v>499</v>
       </c>
       <c r="C115" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D115" t="s">
         <v>802</v>
@@ -19129,7 +19250,7 @@
         <v>730</v>
       </c>
       <c r="H115" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I115" t="s">
         <v>721</v>
@@ -19143,10 +19264,10 @@
         <v>499</v>
       </c>
       <c r="C116" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D116" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E116" t="s">
         <v>731</v>
@@ -19161,7 +19282,7 @@
         <v>797</v>
       </c>
       <c r="I116" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -19172,10 +19293,10 @@
         <v>499</v>
       </c>
       <c r="C117" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D117" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E117" t="s">
         <v>731</v>
@@ -19190,7 +19311,7 @@
         <v>797</v>
       </c>
       <c r="I117" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -19201,10 +19322,10 @@
         <v>499</v>
       </c>
       <c r="C118" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D118" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E118" t="s">
         <v>731</v>
@@ -19219,7 +19340,7 @@
         <v>797</v>
       </c>
       <c r="I118" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -19230,10 +19351,10 @@
         <v>499</v>
       </c>
       <c r="C119" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D119" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E119" t="s">
         <v>731</v>
@@ -19248,7 +19369,7 @@
         <v>797</v>
       </c>
       <c r="I119" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -19259,10 +19380,10 @@
         <v>499</v>
       </c>
       <c r="C120" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D120" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E120" t="s">
         <v>731</v>
@@ -19277,7 +19398,7 @@
         <v>797</v>
       </c>
       <c r="I120" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -19288,10 +19409,10 @@
         <v>499</v>
       </c>
       <c r="C121" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D121" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E121" t="s">
         <v>731</v>
@@ -19306,7 +19427,7 @@
         <v>797</v>
       </c>
       <c r="I121" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -19320,7 +19441,7 @@
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E122" t="s">
         <v>729</v>
@@ -19346,10 +19467,10 @@
         <v>499</v>
       </c>
       <c r="C123" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D123" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E123" t="s">
         <v>729</v>
@@ -19405,10 +19526,10 @@
         <v>499</v>
       </c>
       <c r="C125" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D125" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E125" t="s">
         <v>731</v>
@@ -19420,7 +19541,7 @@
         <v>730</v>
       </c>
       <c r="H125" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I125" t="s">
         <v>721</v>
@@ -19434,10 +19555,10 @@
         <v>499</v>
       </c>
       <c r="C126" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D126" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E126" t="s">
         <v>731</v>
@@ -19452,7 +19573,7 @@
         <v>797</v>
       </c>
       <c r="I126" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -19466,7 +19587,7 @@
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E127" t="s">
         <v>729</v>
@@ -19492,10 +19613,10 @@
         <v>499</v>
       </c>
       <c r="C128" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D128" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E128" t="s">
         <v>729</v>
@@ -19521,10 +19642,10 @@
         <v>499</v>
       </c>
       <c r="C129" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D129" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E129" t="s">
         <v>731</v>
@@ -19536,7 +19657,7 @@
         <v>730</v>
       </c>
       <c r="H129" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I129" t="s">
         <v>891</v>
@@ -19550,10 +19671,10 @@
         <v>499</v>
       </c>
       <c r="C130" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D130" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E130" t="s">
         <v>731</v>
@@ -19565,7 +19686,7 @@
         <v>730</v>
       </c>
       <c r="H130" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I130" t="s">
         <v>890</v>
@@ -19579,10 +19700,10 @@
         <v>499</v>
       </c>
       <c r="C131" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D131" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E131" t="s">
         <v>731</v>
@@ -19597,7 +19718,7 @@
         <v>797</v>
       </c>
       <c r="I131" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -19608,10 +19729,10 @@
         <v>499</v>
       </c>
       <c r="C132" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D132" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E132" t="s">
         <v>731</v>
@@ -19626,7 +19747,7 @@
         <v>797</v>
       </c>
       <c r="I132" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -19644,150 +19765,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20132,48 +20114,152 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20195,6 +20281,42 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>

--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvboey\Documents\Python\GitHub\ML4Credit\IRB models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0EC9164C-3B16-40D6-B8E5-E9A533FFB988}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40C4E77E-7514-4059-9C4B-DE8DEAE3C9B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -9253,7 +9253,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -10755,9 +10755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12384,7 +12384,7 @@
       <c r="B56" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="38" t="s">
         <v>415</v>
       </c>
       <c r="D56" t="s">
@@ -12413,7 +12413,7 @@
       <c r="B57" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="38" t="s">
         <v>524</v>
       </c>
       <c r="D57" t="s">
@@ -12442,7 +12442,7 @@
       <c r="B58" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="38" t="s">
         <v>525</v>
       </c>
       <c r="D58" t="s">
@@ -12471,7 +12471,7 @@
       <c r="B59" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="38" t="s">
         <v>414</v>
       </c>
       <c r="D59" t="s">
@@ -12500,7 +12500,7 @@
       <c r="B60" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="38" t="s">
         <v>415</v>
       </c>
       <c r="D60" t="s">
@@ -12529,7 +12529,7 @@
       <c r="B61" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="38" t="s">
         <v>524</v>
       </c>
       <c r="D61" t="s">
@@ -12558,7 +12558,7 @@
       <c r="B62" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>525</v>
       </c>
       <c r="D62" t="s">
@@ -12587,7 +12587,7 @@
       <c r="B63" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="38" t="s">
         <v>361</v>
       </c>
       <c r="D63" t="s">
@@ -14939,6 +14939,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15283,71 +15288,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -15428,7 +15369,74 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15450,31 +15458,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -15492,4 +15476,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvboey\Documents\Python\GitHub\ML4Credit\IRB models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bebxadvsven\Documents\Python\GitHub\ML4Credit\IRB models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40C4E77E-7514-4059-9C4B-DE8DEAE3C9B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,11 +26,11 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataCatalogue!$A$1:$I$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataCatalogue!$A$1:$I$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sander Vandevenne</author>
   </authors>
   <commentList>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="C120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="C121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="C122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="632">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -1996,12 +1995,113 @@
   <si>
     <t xml:space="preserve">workbook: LEICode_CCF_ModelID_EndOfObservationPeriod_versionNumber.xlsx
 sheet: 3.1      cell: Range(.[T10], .[V10].End(xlDown)) </t>
+  </si>
+  <si>
+    <t>PD_M</t>
+  </si>
+  <si>
+    <t>PD_M_def_overrides</t>
+  </si>
+  <si>
+    <t>PD_M_def_technical</t>
+  </si>
+  <si>
+    <t>PD_N</t>
+  </si>
+  <si>
+    <t>M_ex_ORFS</t>
+  </si>
+  <si>
+    <t>M_ex_TR</t>
+  </si>
+  <si>
+    <t>M_ex_EPD</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E6</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E10</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E11</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E12</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E16</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E21</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: E20</t>
+  </si>
+  <si>
+    <t>PD_M_ex_ORFS</t>
+  </si>
+  <si>
+    <t>averagePD_M_ex_ORFS</t>
+  </si>
+  <si>
+    <t>adfPD_M_ex_ORFS</t>
+  </si>
+  <si>
+    <t>averagePD_M_ex_TR</t>
+  </si>
+  <si>
+    <t>adfPD_M_ex_TR</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: H10</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: I10</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: H11</t>
+  </si>
+  <si>
+    <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
+sheet: 2.0      cell: I11</t>
+  </si>
+  <si>
+    <t>Section 2.5.1(c)</t>
+  </si>
+  <si>
+    <t>Section 2.5.1(d)</t>
+  </si>
+  <si>
+    <t>Section 2.5.1(f)</t>
+  </si>
+  <si>
+    <t>Section 2.5.1(g)</t>
+  </si>
+  <si>
+    <t>Section 2.5.1(e)</t>
+  </si>
+  <si>
+    <t>Section 2.3(d)</t>
+  </si>
+  <si>
+    <t>Section 2.3(f)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2887,7 +2987,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3009,6 +3109,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8569,7 +8671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9230,7 +9332,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:B57">
     <sortState ref="A2:B61">
       <sortCondition ref="A1:A61"/>
     </sortState>
@@ -9249,7 +9351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9268,7 +9370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B109"/>
   <sheetViews>
@@ -10146,7 +10248,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B89" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:B89">
     <sortState ref="A2:B93">
       <sortCondition ref="A1:A93"/>
     </sortState>
@@ -10165,7 +10267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -10263,7 +10365,7 @@
       <c r="B12" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:B10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -10276,7 +10378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
@@ -10752,12 +10854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10816,7 +10918,7 @@
         <v>536</v>
       </c>
       <c r="E2" s="38" t="str">
-        <f>$E$69</f>
+        <f>$E$91</f>
         <v>create_data_set</v>
       </c>
       <c r="F2" t="s">
@@ -10846,7 +10948,7 @@
         <v>476</v>
       </c>
       <c r="E3" s="38" t="str">
-        <f>$E$69</f>
+        <f>$E$91</f>
         <v>create_data_set</v>
       </c>
       <c r="F3" t="s">
@@ -10862,7 +10964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>410</v>
       </c>
@@ -10892,656 +10994,515 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B7" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>608</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F16" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C17" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F17" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C18" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F18" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C19" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F19" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C20" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F20" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C21" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="E21" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F21" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B22" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C22" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F22" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B23" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" t="s">
-        <v>465</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C23" s="58" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="E23" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F23" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B24" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" t="s">
-        <v>472</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C24" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="E24" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F24" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B25" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" t="s">
-        <v>473</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C25" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E25" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F25" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B26" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C26" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="E26" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F26" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D16" t="s">
-        <v>475</v>
-      </c>
-      <c r="E16" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
-      </c>
-      <c r="F17" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" t="s">
-        <v>428</v>
-      </c>
-      <c r="E18" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" t="s">
-        <v>486</v>
-      </c>
-      <c r="D19" t="s">
-        <v>497</v>
-      </c>
-      <c r="E19" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D20" t="s">
-        <v>498</v>
-      </c>
-      <c r="E20" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" t="s">
-        <v>487</v>
-      </c>
-      <c r="D21" t="s">
-        <v>503</v>
-      </c>
-      <c r="E21" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" t="s">
-        <v>412</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" t="s">
-        <v>421</v>
-      </c>
-      <c r="F22" t="s">
-        <v>412</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" t="s">
-        <v>500</v>
-      </c>
-      <c r="E23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" t="s">
-        <v>580</v>
-      </c>
-      <c r="D24" t="s">
-        <v>587</v>
-      </c>
-      <c r="E24" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" t="s">
-        <v>420</v>
-      </c>
-      <c r="H24" t="s">
-        <v>483</v>
-      </c>
-      <c r="I24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D25" t="s">
-        <v>491</v>
-      </c>
-      <c r="E25" t="s">
-        <v>421</v>
-      </c>
-      <c r="F25" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" t="s">
-        <v>488</v>
-      </c>
-      <c r="D26" t="s">
-        <v>492</v>
-      </c>
-      <c r="E26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F26" t="s">
-        <v>412</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>463</v>
-      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" t="s">
-        <v>493</v>
+        <v>466</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>477</v>
       </c>
       <c r="E27" t="s">
         <v>421</v>
@@ -11550,27 +11511,27 @@
         <v>412</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>463</v>
+        <v>420</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" t="s">
-        <v>494</v>
+        <v>467</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>478</v>
       </c>
       <c r="E28" t="s">
         <v>421</v>
@@ -11579,27 +11540,27 @@
         <v>412</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>463</v>
+        <v>420</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>490</v>
-      </c>
-      <c r="D29" t="s">
-        <v>495</v>
+        <v>468</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>479</v>
       </c>
       <c r="E29" t="s">
         <v>421</v>
@@ -11608,27 +11569,27 @@
         <v>412</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>463</v>
+        <v>420</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>580</v>
-      </c>
-      <c r="D30" t="s">
-        <v>588</v>
+        <v>469</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="E30" t="s">
         <v>421</v>
@@ -11637,116 +11598,114 @@
         <v>412</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>463</v>
+        <v>420</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
-      </c>
-      <c r="D31" t="s">
-        <v>536</v>
-      </c>
-      <c r="E31" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>470</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" t="s">
+        <v>421</v>
       </c>
       <c r="F31" t="s">
         <v>412</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>445</v>
+      <c r="G31" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="D32" t="s">
-        <v>502</v>
-      </c>
-      <c r="E32" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>357</v>
+      </c>
+      <c r="C32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" t="s">
+        <v>421</v>
       </c>
       <c r="F32" t="s">
         <v>412</v>
       </c>
-      <c r="G32" s="36" t="s">
-        <v>445</v>
+      <c r="G32" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="C33" t="s">
+        <v>466</v>
       </c>
       <c r="D33" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F33" t="s">
         <v>412</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E34" t="s">
         <v>421</v>
@@ -11755,27 +11714,27 @@
         <v>412</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="D35" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="E35" t="s">
         <v>421</v>
@@ -11784,27 +11743,27 @@
         <v>412</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="D36" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="E36" t="s">
         <v>421</v>
@@ -11813,27 +11772,27 @@
         <v>412</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>505</v>
+        <v>448</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>359</v>
+        <v>470</v>
       </c>
       <c r="D37" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="E37" t="s">
         <v>421</v>
@@ -11842,13 +11801,13 @@
         <v>412</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>505</v>
+        <v>448</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -11859,10 +11818,10 @@
         <v>357</v>
       </c>
       <c r="C38" t="s">
-        <v>360</v>
+        <v>471</v>
       </c>
       <c r="D38" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="E38" t="s">
         <v>421</v>
@@ -11873,129 +11832,128 @@
       <c r="G38" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" t="s">
-        <v>359</v>
+      <c r="A39" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>422</v>
       </c>
       <c r="D39" t="s">
-        <v>515</v>
-      </c>
-      <c r="E39" t="s">
-        <v>421</v>
+        <v>502</v>
+      </c>
+      <c r="E39" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F39" t="s">
         <v>412</v>
       </c>
-      <c r="G39" s="35" t="s">
-        <v>448</v>
+      <c r="G39" s="36" t="s">
+        <v>445</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C40" t="s">
-        <v>510</v>
+      <c r="B40" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
-      </c>
-      <c r="E40" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>428</v>
+      </c>
+      <c r="E40" t="s">
+        <v>419</v>
       </c>
       <c r="F40" t="s">
         <v>412</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="35" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>422</v>
+        <v>357</v>
+      </c>
+      <c r="C41" t="s">
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>502</v>
-      </c>
-      <c r="E41" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>497</v>
+      </c>
+      <c r="E41" t="s">
+        <v>421</v>
       </c>
       <c r="F41" t="s">
         <v>412</v>
       </c>
-      <c r="G41" s="36" t="s">
-        <v>445</v>
+      <c r="G41" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="C42" t="s">
+        <v>488</v>
       </c>
       <c r="D42" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="E42" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F42" t="s">
         <v>412</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>445</v>
+        <v>420</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -12006,10 +11964,10 @@
         <v>357</v>
       </c>
       <c r="C43" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E43" t="s">
         <v>421</v>
@@ -12020,11 +11978,11 @@
       <c r="G43" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H43" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>460</v>
+      <c r="H43" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -12035,10 +11993,10 @@
         <v>357</v>
       </c>
       <c r="C44" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E44" t="s">
         <v>421</v>
@@ -12049,11 +12007,11 @@
       <c r="G44" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H44" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>461</v>
+      <c r="H44" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -12064,10 +12022,10 @@
         <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="E45" t="s">
         <v>421</v>
@@ -12082,21 +12040,21 @@
         <v>483</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+      <c r="A46" t="s">
         <v>413</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" t="s">
         <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="D46" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="E46" t="s">
         <v>421</v>
@@ -12104,28 +12062,28 @@
       <c r="F46" t="s">
         <v>412</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" t="s">
         <v>420</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" t="s">
         <v>483</v>
       </c>
-      <c r="I46" s="36" t="s">
-        <v>523</v>
+      <c r="I46" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="D47" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="E47" t="s">
         <v>421</v>
@@ -12134,27 +12092,27 @@
         <v>412</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>523</v>
+        <v>448</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C48" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="D48" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E48" t="s">
         <v>421</v>
@@ -12163,13 +12121,13 @@
         <v>412</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>523</v>
+        <v>448</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -12180,10 +12138,10 @@
         <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="E49" t="s">
         <v>421</v>
@@ -12194,10 +12152,10 @@
       <c r="G49" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="35" t="s">
         <v>463</v>
       </c>
     </row>
@@ -12209,10 +12167,10 @@
         <v>357</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E50" t="s">
         <v>421</v>
@@ -12223,10 +12181,10 @@
       <c r="G50" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="35" t="s">
         <v>463</v>
       </c>
     </row>
@@ -12238,10 +12196,10 @@
         <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="E51" t="s">
         <v>421</v>
@@ -12252,10 +12210,10 @@
       <c r="G51" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="35" t="s">
         <v>463</v>
       </c>
     </row>
@@ -12267,10 +12225,10 @@
         <v>357</v>
       </c>
       <c r="C52" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="E52" t="s">
         <v>421</v>
@@ -12281,10 +12239,10 @@
       <c r="G52" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="35" t="s">
         <v>463</v>
       </c>
     </row>
@@ -12302,7 +12260,7 @@
         <v>536</v>
       </c>
       <c r="E53" s="38" t="str">
-        <f>$E$69</f>
+        <f>$E$91</f>
         <v>create_data_set</v>
       </c>
       <c r="F53" t="s">
@@ -12326,13 +12284,13 @@
         <v>408</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>36</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="E54" s="38" t="str">
-        <f>$E$69</f>
+        <f>$E$91</f>
         <v>create_data_set</v>
       </c>
       <c r="F54" t="s">
@@ -12350,31 +12308,31 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="E55" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F55" t="s">
         <v>412</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>534</v>
+        <v>445</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -12384,11 +12342,11 @@
       <c r="B56" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="38" t="s">
-        <v>415</v>
+      <c r="C56" t="s">
+        <v>506</v>
       </c>
       <c r="D56" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="E56" t="s">
         <v>421</v>
@@ -12399,11 +12357,11 @@
       <c r="G56" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H56" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>534</v>
+      <c r="H56" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -12413,11 +12371,11 @@
       <c r="B57" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>524</v>
+      <c r="C57" t="s">
+        <v>508</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="E57" t="s">
         <v>421</v>
@@ -12428,11 +12386,11 @@
       <c r="G57" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H57" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>534</v>
+      <c r="H57" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -12442,11 +12400,11 @@
       <c r="B58" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>525</v>
+      <c r="C58" t="s">
+        <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="E58" t="s">
         <v>421</v>
@@ -12461,21 +12419,21 @@
         <v>483</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>414</v>
+      <c r="C59" t="s">
+        <v>359</v>
       </c>
       <c r="D59" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E59" t="s">
         <v>421</v>
@@ -12484,13 +12442,13 @@
         <v>412</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -12500,11 +12458,11 @@
       <c r="B60" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>415</v>
+      <c r="C60" t="s">
+        <v>360</v>
       </c>
       <c r="D60" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E60" t="s">
         <v>421</v>
@@ -12529,11 +12487,11 @@
       <c r="B61" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>524</v>
+      <c r="C61" t="s">
+        <v>359</v>
       </c>
       <c r="D61" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E61" t="s">
         <v>421</v>
@@ -12553,31 +12511,32 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>525</v>
+      <c r="C62" t="s">
+        <v>510</v>
       </c>
       <c r="D62" t="s">
-        <v>529</v>
-      </c>
-      <c r="E62" t="s">
-        <v>421</v>
+        <v>485</v>
+      </c>
+      <c r="E62" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F62" t="s">
         <v>412</v>
       </c>
-      <c r="G62" s="35" t="s">
-        <v>448</v>
+      <c r="G62" s="36" t="s">
+        <v>445</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -12585,27 +12544,28 @@
         <v>410</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
-      </c>
-      <c r="E63" t="s">
-        <v>419</v>
+        <v>502</v>
+      </c>
+      <c r="E63" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F63" t="s">
         <v>412</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="H63" s="35" t="s">
+      <c r="H63" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="I63" s="35" t="s">
+      <c r="I63" s="36" t="s">
         <v>445</v>
       </c>
     </row>
@@ -12614,13 +12574,13 @@
         <v>410</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C64" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E64" t="s">
         <v>419</v>
@@ -12643,13 +12603,13 @@
         <v>413</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="E65" t="s">
         <v>421</v>
@@ -12661,10 +12621,10 @@
         <v>420</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>542</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -12672,13 +12632,13 @@
         <v>413</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C66" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="E66" t="s">
         <v>421</v>
@@ -12690,24 +12650,24 @@
         <v>420</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>596</v>
+        <v>521</v>
       </c>
       <c r="E67" t="s">
         <v>421</v>
@@ -12716,27 +12676,27 @@
         <v>412</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>462</v>
+        <v>420</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="E68" t="s">
         <v>421</v>
@@ -12745,172 +12705,172 @@
         <v>412</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>462</v>
+        <v>420</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="E69" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F69" t="s">
         <v>412</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>445</v>
+        <v>420</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>517</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F70" t="s">
         <v>412</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I70" s="35" t="s">
-        <v>445</v>
+        <v>420</v>
+      </c>
+      <c r="H70" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C71" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>516</v>
       </c>
       <c r="E71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F71" t="s">
         <v>412</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I71" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="H71" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="E72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F72" t="s">
         <v>412</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I72" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="E73" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F73" t="s">
         <v>412</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I73" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="E74" t="s">
         <v>421</v>
@@ -12919,71 +12879,73 @@
         <v>412</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I74" s="35" t="s">
-        <v>460</v>
+        <v>448</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="D75" t="s">
-        <v>438</v>
-      </c>
-      <c r="E75" t="s">
-        <v>421</v>
+        <v>536</v>
+      </c>
+      <c r="E75" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F75" t="s">
         <v>412</v>
       </c>
-      <c r="G75" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I75" s="35" t="s">
-        <v>461</v>
+      <c r="G75" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C76" t="s">
-        <v>571</v>
+        <v>408</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>440</v>
-      </c>
-      <c r="E76" t="s">
-        <v>421</v>
+        <v>535</v>
+      </c>
+      <c r="E76" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F76" t="s">
         <v>412</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I76" s="35" t="s">
-        <v>460</v>
+      <c r="G76" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -12991,13 +12953,13 @@
         <v>413</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>572</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="E77" t="s">
         <v>421</v>
@@ -13008,11 +12970,11 @@
       <c r="G77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H77" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="I77" s="35" t="s">
-        <v>461</v>
+      <c r="H77" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -13020,13 +12982,13 @@
         <v>413</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78" t="s">
-        <v>430</v>
+        <v>357</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="D78" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="E78" t="s">
         <v>421</v>
@@ -13037,11 +12999,11 @@
       <c r="G78" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H78" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I78" t="s">
-        <v>417</v>
+      <c r="H78" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -13049,13 +13011,13 @@
         <v>413</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C79" t="s">
-        <v>431</v>
+        <v>357</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>524</v>
       </c>
       <c r="D79" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="E79" t="s">
         <v>421</v>
@@ -13066,11 +13028,11 @@
       <c r="G79" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H79" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I79" t="s">
-        <v>417</v>
+      <c r="H79" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -13078,13 +13040,13 @@
         <v>413</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C80" t="s">
-        <v>578</v>
+        <v>357</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>525</v>
       </c>
       <c r="D80" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="E80" t="s">
         <v>421</v>
@@ -13095,25 +13057,25 @@
       <c r="G80" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H80" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I80" t="s">
-        <v>417</v>
+      <c r="H80" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C81" t="s">
-        <v>432</v>
+        <v>357</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>414</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="E81" t="s">
         <v>421</v>
@@ -13122,27 +13084,27 @@
         <v>412</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I81" t="s">
-        <v>417</v>
+        <v>448</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C82" t="s">
-        <v>433</v>
+        <v>357</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="D82" t="s">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="E82" t="s">
         <v>421</v>
@@ -13151,27 +13113,27 @@
         <v>412</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I82" t="s">
-        <v>417</v>
+        <v>448</v>
+      </c>
+      <c r="H82" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C83" t="s">
-        <v>579</v>
+        <v>357</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>524</v>
       </c>
       <c r="D83" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="E83" t="s">
         <v>421</v>
@@ -13180,13 +13142,13 @@
         <v>412</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="I83" t="s">
-        <v>417</v>
+        <v>448</v>
+      </c>
+      <c r="H83" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -13194,13 +13156,13 @@
         <v>411</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C84" t="s">
-        <v>430</v>
+        <v>357</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>525</v>
       </c>
       <c r="D84" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="E84" t="s">
         <v>421</v>
@@ -13211,83 +13173,83 @@
       <c r="G84" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="I84" t="s">
-        <v>462</v>
+      <c r="I84" s="36" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C85" t="s">
-        <v>431</v>
+      <c r="C85" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F85" t="s">
         <v>412</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H85" t="s">
-        <v>448</v>
-      </c>
-      <c r="I85" t="s">
-        <v>462</v>
+        <v>445</v>
+      </c>
+      <c r="H85" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I85" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B86" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C86" t="s">
-        <v>578</v>
+        <v>409</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="E86" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F86" t="s">
         <v>412</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H86" t="s">
-        <v>448</v>
-      </c>
-      <c r="I86" t="s">
-        <v>462</v>
+        <v>445</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I86" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>539</v>
       </c>
       <c r="E87" t="s">
         <v>421</v>
@@ -13296,27 +13258,27 @@
         <v>412</v>
       </c>
       <c r="G87" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H87" t="s">
-        <v>448</v>
-      </c>
-      <c r="I87" t="s">
-        <v>462</v>
+        <v>420</v>
+      </c>
+      <c r="H87" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="I87" s="35" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="D88" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="E88" t="s">
         <v>421</v>
@@ -13325,13 +13287,13 @@
         <v>412</v>
       </c>
       <c r="G88" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H88" t="s">
-        <v>448</v>
-      </c>
-      <c r="I88" t="s">
-        <v>462</v>
+        <v>420</v>
+      </c>
+      <c r="H88" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="I88" s="35" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -13342,10 +13304,10 @@
         <v>361</v>
       </c>
       <c r="C89" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="D89" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E89" t="s">
         <v>421</v>
@@ -13356,40 +13318,40 @@
       <c r="G89" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="35" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="D90" t="s">
-        <v>425</v>
+        <v>597</v>
       </c>
       <c r="E90" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F90" t="s">
         <v>412</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I90" s="35" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -13400,10 +13362,10 @@
         <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E91" t="s">
         <v>419</v>
@@ -13426,87 +13388,86 @@
         <v>410</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>36</v>
+        <v>361</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
       </c>
       <c r="D92" t="s">
-        <v>535</v>
-      </c>
-      <c r="E92" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>424</v>
+      </c>
+      <c r="E92" t="s">
+        <v>419</v>
       </c>
       <c r="F92" t="s">
         <v>412</v>
       </c>
-      <c r="G92" s="36" t="s">
+      <c r="G92" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="H92" s="36" t="s">
+      <c r="H92" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="I92" s="36" t="s">
+      <c r="I92" s="35" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B93" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C93" t="s">
-        <v>581</v>
+        <v>426</v>
       </c>
       <c r="D93" t="s">
-        <v>582</v>
+        <v>435</v>
       </c>
       <c r="E93" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F93" t="s">
         <v>412</v>
       </c>
-      <c r="G93" t="s">
-        <v>420</v>
-      </c>
-      <c r="H93" t="s">
-        <v>458</v>
-      </c>
-      <c r="I93" t="s">
-        <v>417</v>
+      <c r="G93" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H93" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I93" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C94" t="s">
-        <v>581</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>436</v>
       </c>
       <c r="E94" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F94" t="s">
         <v>412</v>
       </c>
-      <c r="G94" t="s">
-        <v>448</v>
-      </c>
-      <c r="H94" t="s">
-        <v>448</v>
-      </c>
-      <c r="I94" t="s">
-        <v>462</v>
+      <c r="G94" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I94" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -13514,13 +13475,13 @@
         <v>410</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>363</v>
+        <v>408</v>
+      </c>
+      <c r="C95" t="s">
+        <v>358</v>
       </c>
       <c r="D95" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E95" t="s">
         <v>419</v>
@@ -13540,31 +13501,31 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>543</v>
+        <v>361</v>
+      </c>
+      <c r="C96" t="s">
+        <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>549</v>
+        <v>437</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F96" t="s">
         <v>412</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -13572,13 +13533,13 @@
         <v>413</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>544</v>
+        <v>361</v>
+      </c>
+      <c r="C97" t="s">
+        <v>429</v>
       </c>
       <c r="D97" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
         <v>421</v>
@@ -13589,11 +13550,11 @@
       <c r="G97" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H97" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="I97" s="40" t="s">
-        <v>542</v>
+      <c r="H97" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I97" s="35" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -13601,13 +13562,13 @@
         <v>413</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>546</v>
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>571</v>
       </c>
       <c r="D98" t="s">
-        <v>551</v>
+        <v>440</v>
       </c>
       <c r="E98" t="s">
         <v>421</v>
@@ -13618,25 +13579,25 @@
       <c r="G98" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H98" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="I98" s="40" t="s">
-        <v>541</v>
+      <c r="H98" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I98" s="35" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C99" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="D99" s="39" t="s">
-        <v>598</v>
+        <v>361</v>
+      </c>
+      <c r="C99" t="s">
+        <v>572</v>
+      </c>
+      <c r="D99" t="s">
+        <v>439</v>
       </c>
       <c r="E99" t="s">
         <v>421</v>
@@ -13645,27 +13606,27 @@
         <v>412</v>
       </c>
       <c r="G99" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H99" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="I99" s="40" t="s">
-        <v>547</v>
+        <v>420</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="I99" s="35" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C100" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="D100" s="39" t="s">
-        <v>599</v>
+        <v>361</v>
+      </c>
+      <c r="C100" t="s">
+        <v>430</v>
+      </c>
+      <c r="D100" t="s">
+        <v>441</v>
       </c>
       <c r="E100" t="s">
         <v>421</v>
@@ -13674,172 +13635,172 @@
         <v>412</v>
       </c>
       <c r="G100" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="H100" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="I100" s="40" t="s">
-        <v>547</v>
+        <v>420</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="I100" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B101" t="s">
-        <v>362</v>
+        <v>413</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C101" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="D101" t="s">
-        <v>573</v>
+        <v>442</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F101" t="s">
         <v>412</v>
       </c>
-      <c r="G101" t="s">
-        <v>445</v>
-      </c>
-      <c r="H101" t="s">
-        <v>445</v>
+      <c r="G101" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H101" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="I101" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B102" t="s">
-        <v>362</v>
+        <v>413</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C102" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D102" t="s">
-        <v>574</v>
+        <v>453</v>
       </c>
       <c r="E102" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F102" t="s">
         <v>412</v>
       </c>
-      <c r="G102" t="s">
-        <v>445</v>
-      </c>
-      <c r="H102" t="s">
-        <v>445</v>
+      <c r="G102" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="I102" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B103" t="s">
-        <v>362</v>
+        <v>413</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C103" t="s">
-        <v>565</v>
+        <v>432</v>
       </c>
       <c r="D103" t="s">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="E103" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F103" t="s">
         <v>412</v>
       </c>
-      <c r="G103" t="s">
-        <v>445</v>
-      </c>
-      <c r="H103" t="s">
-        <v>445</v>
+      <c r="G103" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H103" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="I103" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B104" t="s">
-        <v>362</v>
+        <v>413</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C104" t="s">
-        <v>567</v>
+        <v>433</v>
       </c>
       <c r="D104" t="s">
-        <v>568</v>
+        <v>443</v>
       </c>
       <c r="E104" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F104" t="s">
         <v>412</v>
       </c>
-      <c r="G104" t="s">
-        <v>445</v>
-      </c>
-      <c r="H104" t="s">
-        <v>445</v>
+      <c r="G104" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="I104" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B105" t="s">
-        <v>408</v>
+        <v>413</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>579</v>
       </c>
       <c r="D105" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E105" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F105" t="s">
         <v>412</v>
       </c>
-      <c r="G105" t="s">
-        <v>445</v>
-      </c>
-      <c r="H105" t="s">
-        <v>445</v>
+      <c r="G105" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="I105" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>413</v>
-      </c>
-      <c r="B106" t="s">
-        <v>362</v>
+      <c r="A106" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C106" t="s">
-        <v>552</v>
+        <v>430</v>
       </c>
       <c r="D106" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E106" t="s">
         <v>421</v>
@@ -13847,28 +13808,28 @@
       <c r="F106" t="s">
         <v>412</v>
       </c>
-      <c r="G106" t="s">
-        <v>420</v>
+      <c r="G106" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H106" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I106" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B107" t="s">
-        <v>362</v>
+      <c r="A107" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C107" t="s">
-        <v>553</v>
+        <v>431</v>
       </c>
       <c r="D107" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E107" t="s">
         <v>421</v>
@@ -13876,28 +13837,28 @@
       <c r="F107" t="s">
         <v>412</v>
       </c>
-      <c r="G107" t="s">
-        <v>420</v>
+      <c r="G107" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H107" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>413</v>
-      </c>
-      <c r="B108" t="s">
-        <v>362</v>
+      <c r="A108" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E108" t="s">
         <v>421</v>
@@ -13905,28 +13866,28 @@
       <c r="F108" t="s">
         <v>412</v>
       </c>
-      <c r="G108" t="s">
-        <v>420</v>
+      <c r="G108" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H108" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I108" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>413</v>
-      </c>
-      <c r="B109" t="s">
-        <v>362</v>
+      <c r="A109" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C109" t="s">
-        <v>570</v>
+        <v>432</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E109" t="s">
         <v>421</v>
@@ -13934,28 +13895,28 @@
       <c r="F109" t="s">
         <v>412</v>
       </c>
-      <c r="G109" t="s">
-        <v>420</v>
+      <c r="G109" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H109" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I109" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>413</v>
-      </c>
-      <c r="B110" t="s">
-        <v>362</v>
+      <c r="A110" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C110" t="s">
-        <v>554</v>
+        <v>433</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E110" t="s">
         <v>421</v>
@@ -13963,28 +13924,28 @@
       <c r="F110" t="s">
         <v>412</v>
       </c>
-      <c r="G110" t="s">
-        <v>420</v>
+      <c r="G110" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H110" t="s">
-        <v>555</v>
+        <v>448</v>
       </c>
       <c r="I110" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>413</v>
-      </c>
-      <c r="B111" t="s">
-        <v>362</v>
+      <c r="A111" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C111" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>593</v>
       </c>
       <c r="E111" t="s">
         <v>421</v>
@@ -13992,115 +13953,116 @@
       <c r="F111" t="s">
         <v>412</v>
       </c>
-      <c r="G111" t="s">
-        <v>420</v>
+      <c r="G111" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="H111" t="s">
-        <v>555</v>
+        <v>448</v>
       </c>
       <c r="I111" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>413</v>
-      </c>
-      <c r="B112" t="s">
-        <v>362</v>
+      <c r="A112" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C112" t="s">
-        <v>575</v>
+        <v>361</v>
       </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="E112" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F112" t="s">
         <v>412</v>
       </c>
-      <c r="G112" t="s">
-        <v>420</v>
-      </c>
-      <c r="H112" t="s">
-        <v>555</v>
-      </c>
-      <c r="I112" t="s">
-        <v>416</v>
+      <c r="G112" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H112" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I112" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>413</v>
-      </c>
-      <c r="B113" t="s">
-        <v>362</v>
+      <c r="A113" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="E113" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F113" t="s">
         <v>412</v>
       </c>
-      <c r="G113" t="s">
-        <v>420</v>
-      </c>
-      <c r="H113" t="s">
-        <v>555</v>
-      </c>
-      <c r="I113" t="s">
-        <v>416</v>
+      <c r="G113" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I113" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>413</v>
-      </c>
-      <c r="B114" t="s">
-        <v>362</v>
-      </c>
-      <c r="C114" t="s">
-        <v>558</v>
+      <c r="A114" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
-      </c>
-      <c r="E114" t="s">
-        <v>421</v>
+        <v>535</v>
+      </c>
+      <c r="E114" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
       </c>
       <c r="F114" t="s">
         <v>412</v>
       </c>
-      <c r="G114" t="s">
-        <v>420</v>
-      </c>
-      <c r="H114" t="s">
-        <v>555</v>
-      </c>
-      <c r="I114" t="s">
-        <v>416</v>
+      <c r="G114" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H114" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I114" s="36" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="B115" t="s">
-        <v>362</v>
+      <c r="B115" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C115" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D115" t="s">
-        <v>453</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
         <v>421</v>
@@ -14112,24 +14074,24 @@
         <v>420</v>
       </c>
       <c r="H115" t="s">
-        <v>555</v>
+        <v>458</v>
       </c>
       <c r="I115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B116" t="s">
-        <v>362</v>
+      <c r="B116" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="D116" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="E116" t="s">
         <v>421</v>
@@ -14144,79 +14106,79 @@
         <v>448</v>
       </c>
       <c r="I116" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>411</v>
-      </c>
-      <c r="B117" t="s">
-        <v>362</v>
-      </c>
-      <c r="C117" t="s">
-        <v>556</v>
+      <c r="A117" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="D117" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E117" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F117" t="s">
         <v>412</v>
       </c>
-      <c r="G117" t="s">
-        <v>448</v>
-      </c>
-      <c r="H117" t="s">
-        <v>448</v>
-      </c>
-      <c r="I117" t="s">
-        <v>560</v>
+      <c r="G117" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H117" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I117" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>411</v>
-      </c>
-      <c r="B118" t="s">
-        <v>362</v>
-      </c>
-      <c r="C118" t="s">
-        <v>575</v>
+      <c r="A118" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="D118" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E118" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F118" t="s">
         <v>412</v>
       </c>
-      <c r="G118" t="s">
-        <v>448</v>
-      </c>
-      <c r="H118" t="s">
-        <v>448</v>
-      </c>
-      <c r="I118" t="s">
-        <v>560</v>
+      <c r="G118" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H118" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I118" s="35" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" t="s">
-        <v>557</v>
+      <c r="A119" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>544</v>
       </c>
       <c r="D119" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E119" t="s">
         <v>421</v>
@@ -14224,28 +14186,28 @@
       <c r="F119" t="s">
         <v>412</v>
       </c>
-      <c r="G119" t="s">
-        <v>448</v>
-      </c>
-      <c r="H119" t="s">
-        <v>448</v>
-      </c>
-      <c r="I119" t="s">
-        <v>560</v>
+      <c r="G119" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="I119" s="40" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="C120" t="s">
-        <v>558</v>
+        <v>363</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>546</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E120" t="s">
         <v>421</v>
@@ -14253,28 +14215,28 @@
       <c r="F120" t="s">
         <v>412</v>
       </c>
-      <c r="G120" t="s">
-        <v>448</v>
-      </c>
-      <c r="H120" t="s">
-        <v>448</v>
-      </c>
-      <c r="I120" t="s">
-        <v>560</v>
+      <c r="G120" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H120" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="I120" s="40" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B121" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" t="s">
-        <v>576</v>
-      </c>
-      <c r="D121" t="s">
-        <v>594</v>
+      <c r="B121" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="D121" s="39" t="s">
+        <v>598</v>
       </c>
       <c r="E121" t="s">
         <v>421</v>
@@ -14282,57 +14244,57 @@
       <c r="F121" t="s">
         <v>412</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="I121" t="s">
-        <v>560</v>
+      <c r="I121" s="40" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="C122" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" t="s">
-        <v>573</v>
+        <v>363</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>599</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F122" t="s">
         <v>412</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="H122" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="I122" s="35" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="I122" s="40" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" t="s">
         <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>591</v>
+        <v>362</v>
       </c>
       <c r="D123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E123" t="s">
         <v>419</v>
@@ -14340,13 +14302,13 @@
       <c r="F123" t="s">
         <v>412</v>
       </c>
-      <c r="G123" s="35" t="s">
+      <c r="G123" t="s">
         <v>445</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H123" t="s">
         <v>445</v>
       </c>
-      <c r="I123" s="35" t="s">
+      <c r="I123" t="s">
         <v>445</v>
       </c>
     </row>
@@ -14354,102 +14316,101 @@
       <c r="A124" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="B124" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C124" s="38" t="s">
-        <v>36</v>
+      <c r="B124" t="s">
+        <v>362</v>
+      </c>
+      <c r="C124" t="s">
+        <v>591</v>
       </c>
       <c r="D124" t="s">
-        <v>535</v>
-      </c>
-      <c r="E124" s="38" t="str">
-        <f>$E$69</f>
-        <v>create_data_set</v>
+        <v>574</v>
+      </c>
+      <c r="E124" t="s">
+        <v>419</v>
       </c>
       <c r="F124" t="s">
         <v>412</v>
       </c>
-      <c r="G124" s="36" t="s">
+      <c r="G124" t="s">
         <v>445</v>
       </c>
-      <c r="H124" s="36" t="s">
+      <c r="H124" t="s">
         <v>445</v>
       </c>
-      <c r="I124" s="36" t="s">
+      <c r="I124" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B125" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" t="s">
         <v>362</v>
       </c>
       <c r="C125" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="D125" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="E125" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F125" t="s">
         <v>412</v>
       </c>
       <c r="G125" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="H125" t="s">
-        <v>555</v>
+        <v>445</v>
       </c>
       <c r="I125" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B126" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B126" t="s">
         <v>362</v>
       </c>
       <c r="C126" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D126" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="E126" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F126" t="s">
         <v>412</v>
       </c>
       <c r="G126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I126" t="s">
-        <v>560</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="35" t="s">
         <v>410</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D127" t="s">
-        <v>573</v>
+        <v>428</v>
       </c>
       <c r="E127" t="s">
         <v>419</v>
@@ -14469,31 +14430,31 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B128" t="s">
         <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="D128" t="s">
-        <v>574</v>
+        <v>437</v>
       </c>
       <c r="E128" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F128" t="s">
         <v>412</v>
       </c>
       <c r="G128" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="H128" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="I128" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -14504,10 +14465,10 @@
         <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="D129" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
       <c r="E129" t="s">
         <v>421</v>
@@ -14519,10 +14480,10 @@
         <v>420</v>
       </c>
       <c r="H129" t="s">
-        <v>555</v>
+        <v>459</v>
       </c>
       <c r="I129" t="s">
-        <v>542</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -14533,10 +14494,10 @@
         <v>362</v>
       </c>
       <c r="C130" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D130" t="s">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="E130" t="s">
         <v>421</v>
@@ -14548,24 +14509,24 @@
         <v>420</v>
       </c>
       <c r="H130" t="s">
-        <v>555</v>
+        <v>459</v>
       </c>
       <c r="I130" t="s">
-        <v>541</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B131" t="s">
         <v>362</v>
       </c>
       <c r="C131" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D131" t="s">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="E131" t="s">
         <v>421</v>
@@ -14574,27 +14535,27 @@
         <v>412</v>
       </c>
       <c r="G131" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="H131" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="I131" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B132" t="s">
         <v>362</v>
       </c>
       <c r="C132" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D132" t="s">
-        <v>601</v>
+        <v>441</v>
       </c>
       <c r="E132" t="s">
         <v>421</v>
@@ -14603,24 +14564,663 @@
         <v>412</v>
       </c>
       <c r="G132" t="s">
+        <v>420</v>
+      </c>
+      <c r="H132" t="s">
+        <v>555</v>
+      </c>
+      <c r="I132" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" t="s">
+        <v>442</v>
+      </c>
+      <c r="E133" t="s">
+        <v>421</v>
+      </c>
+      <c r="F133" t="s">
+        <v>412</v>
+      </c>
+      <c r="G133" t="s">
+        <v>420</v>
+      </c>
+      <c r="H133" t="s">
+        <v>555</v>
+      </c>
+      <c r="I133" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>413</v>
+      </c>
+      <c r="B134" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" t="s">
+        <v>575</v>
+      </c>
+      <c r="D134" t="s">
+        <v>577</v>
+      </c>
+      <c r="E134" t="s">
+        <v>421</v>
+      </c>
+      <c r="F134" t="s">
+        <v>412</v>
+      </c>
+      <c r="G134" t="s">
+        <v>420</v>
+      </c>
+      <c r="H134" t="s">
+        <v>555</v>
+      </c>
+      <c r="I134" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>413</v>
+      </c>
+      <c r="B135" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" t="s">
+        <v>421</v>
+      </c>
+      <c r="F135" t="s">
+        <v>412</v>
+      </c>
+      <c r="G135" t="s">
+        <v>420</v>
+      </c>
+      <c r="H135" t="s">
+        <v>555</v>
+      </c>
+      <c r="I135" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>413</v>
+      </c>
+      <c r="B136" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" t="s">
+        <v>558</v>
+      </c>
+      <c r="D136" t="s">
+        <v>443</v>
+      </c>
+      <c r="E136" t="s">
+        <v>421</v>
+      </c>
+      <c r="F136" t="s">
+        <v>412</v>
+      </c>
+      <c r="G136" t="s">
+        <v>420</v>
+      </c>
+      <c r="H136" t="s">
+        <v>555</v>
+      </c>
+      <c r="I136" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>413</v>
+      </c>
+      <c r="B137" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" t="s">
+        <v>576</v>
+      </c>
+      <c r="D137" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" t="s">
+        <v>421</v>
+      </c>
+      <c r="F137" t="s">
+        <v>412</v>
+      </c>
+      <c r="G137" t="s">
+        <v>420</v>
+      </c>
+      <c r="H137" t="s">
+        <v>555</v>
+      </c>
+      <c r="I137" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>411</v>
+      </c>
+      <c r="B138" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" t="s">
+        <v>554</v>
+      </c>
+      <c r="D138" t="s">
+        <v>559</v>
+      </c>
+      <c r="E138" t="s">
+        <v>421</v>
+      </c>
+      <c r="F138" t="s">
+        <v>412</v>
+      </c>
+      <c r="G138" t="s">
         <v>448</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H138" t="s">
         <v>448</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I138" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>411</v>
+      </c>
+      <c r="B139" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" t="s">
+        <v>556</v>
+      </c>
+      <c r="D139" t="s">
+        <v>561</v>
+      </c>
+      <c r="E139" t="s">
+        <v>421</v>
+      </c>
+      <c r="F139" t="s">
+        <v>412</v>
+      </c>
+      <c r="G139" t="s">
+        <v>448</v>
+      </c>
+      <c r="H139" t="s">
+        <v>448</v>
+      </c>
+      <c r="I139" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>411</v>
+      </c>
+      <c r="B140" t="s">
+        <v>362</v>
+      </c>
+      <c r="C140" t="s">
+        <v>575</v>
+      </c>
+      <c r="D140" t="s">
+        <v>562</v>
+      </c>
+      <c r="E140" t="s">
+        <v>421</v>
+      </c>
+      <c r="F140" t="s">
+        <v>412</v>
+      </c>
+      <c r="G140" t="s">
+        <v>448</v>
+      </c>
+      <c r="H140" t="s">
+        <v>448</v>
+      </c>
+      <c r="I140" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>411</v>
+      </c>
+      <c r="B141" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" t="s">
+        <v>563</v>
+      </c>
+      <c r="E141" t="s">
+        <v>421</v>
+      </c>
+      <c r="F141" t="s">
+        <v>412</v>
+      </c>
+      <c r="G141" t="s">
+        <v>448</v>
+      </c>
+      <c r="H141" t="s">
+        <v>448</v>
+      </c>
+      <c r="I141" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C142" t="s">
+        <v>558</v>
+      </c>
+      <c r="D142" t="s">
+        <v>564</v>
+      </c>
+      <c r="E142" t="s">
+        <v>421</v>
+      </c>
+      <c r="F142" t="s">
+        <v>412</v>
+      </c>
+      <c r="G142" t="s">
+        <v>448</v>
+      </c>
+      <c r="H142" t="s">
+        <v>448</v>
+      </c>
+      <c r="I142" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>411</v>
+      </c>
+      <c r="B143" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" t="s">
+        <v>576</v>
+      </c>
+      <c r="D143" t="s">
+        <v>594</v>
+      </c>
+      <c r="E143" t="s">
+        <v>421</v>
+      </c>
+      <c r="F143" t="s">
+        <v>412</v>
+      </c>
+      <c r="G143" t="s">
+        <v>448</v>
+      </c>
+      <c r="H143" t="s">
+        <v>448</v>
+      </c>
+      <c r="I143" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" t="s">
+        <v>362</v>
+      </c>
+      <c r="D144" t="s">
+        <v>573</v>
+      </c>
+      <c r="E144" t="s">
+        <v>419</v>
+      </c>
+      <c r="F144" t="s">
+        <v>412</v>
+      </c>
+      <c r="G144" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H144" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I144" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D145" t="s">
+        <v>574</v>
+      </c>
+      <c r="E145" t="s">
+        <v>419</v>
+      </c>
+      <c r="F145" t="s">
+        <v>412</v>
+      </c>
+      <c r="G145" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="H145" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="I145" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>535</v>
+      </c>
+      <c r="E146" s="38" t="str">
+        <f>$E$91</f>
+        <v>create_data_set</v>
+      </c>
+      <c r="F146" t="s">
+        <v>412</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H146" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I146" s="36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" t="s">
+        <v>584</v>
+      </c>
+      <c r="D147" t="s">
+        <v>592</v>
+      </c>
+      <c r="E147" t="s">
+        <v>421</v>
+      </c>
+      <c r="F147" t="s">
+        <v>412</v>
+      </c>
+      <c r="G147" t="s">
+        <v>420</v>
+      </c>
+      <c r="H147" t="s">
+        <v>555</v>
+      </c>
+      <c r="I147" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C148" t="s">
+        <v>584</v>
+      </c>
+      <c r="D148" t="s">
+        <v>595</v>
+      </c>
+      <c r="E148" t="s">
+        <v>421</v>
+      </c>
+      <c r="F148" t="s">
+        <v>412</v>
+      </c>
+      <c r="G148" t="s">
+        <v>448</v>
+      </c>
+      <c r="H148" t="s">
+        <v>448</v>
+      </c>
+      <c r="I148" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" t="s">
+        <v>573</v>
+      </c>
+      <c r="E149" t="s">
+        <v>419</v>
+      </c>
+      <c r="F149" t="s">
+        <v>412</v>
+      </c>
+      <c r="G149" t="s">
+        <v>445</v>
+      </c>
+      <c r="H149" t="s">
+        <v>445</v>
+      </c>
+      <c r="I149" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>410</v>
+      </c>
+      <c r="B150" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" t="s">
+        <v>591</v>
+      </c>
+      <c r="D150" t="s">
+        <v>574</v>
+      </c>
+      <c r="E150" t="s">
+        <v>419</v>
+      </c>
+      <c r="F150" t="s">
+        <v>412</v>
+      </c>
+      <c r="G150" t="s">
+        <v>445</v>
+      </c>
+      <c r="H150" t="s">
+        <v>445</v>
+      </c>
+      <c r="I150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>413</v>
+      </c>
+      <c r="B151" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" t="s">
+        <v>585</v>
+      </c>
+      <c r="D151" t="s">
+        <v>589</v>
+      </c>
+      <c r="E151" t="s">
+        <v>421</v>
+      </c>
+      <c r="F151" t="s">
+        <v>412</v>
+      </c>
+      <c r="G151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H151" t="s">
+        <v>555</v>
+      </c>
+      <c r="I151" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>413</v>
+      </c>
+      <c r="B152" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" t="s">
+        <v>586</v>
+      </c>
+      <c r="D152" t="s">
+        <v>590</v>
+      </c>
+      <c r="E152" t="s">
+        <v>421</v>
+      </c>
+      <c r="F152" t="s">
+        <v>412</v>
+      </c>
+      <c r="G152" t="s">
+        <v>420</v>
+      </c>
+      <c r="H152" t="s">
+        <v>555</v>
+      </c>
+      <c r="I152" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>411</v>
+      </c>
+      <c r="B153" t="s">
+        <v>362</v>
+      </c>
+      <c r="C153" t="s">
+        <v>585</v>
+      </c>
+      <c r="D153" t="s">
+        <v>600</v>
+      </c>
+      <c r="E153" t="s">
+        <v>421</v>
+      </c>
+      <c r="F153" t="s">
+        <v>412</v>
+      </c>
+      <c r="G153" t="s">
+        <v>448</v>
+      </c>
+      <c r="H153" t="s">
+        <v>448</v>
+      </c>
+      <c r="I153" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>411</v>
+      </c>
+      <c r="B154" t="s">
+        <v>362</v>
+      </c>
+      <c r="C154" t="s">
+        <v>586</v>
+      </c>
+      <c r="D154" t="s">
+        <v>601</v>
+      </c>
+      <c r="E154" t="s">
+        <v>421</v>
+      </c>
+      <c r="F154" t="s">
+        <v>412</v>
+      </c>
+      <c r="G154" t="s">
+        <v>448</v>
+      </c>
+      <c r="H154" t="s">
+        <v>448</v>
+      </c>
+      <c r="I154" t="s">
         <v>560</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A118 A119:A1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"Input,Output,Calculated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F118 F119:F1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Datetime,Categorical,Numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118 B119:B1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"General,PD,LGD,CCF,ELBE,LGDD,SL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14631,7 +15231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD109A5-DF00-424A-A2E9-AE179C63E8EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14646,7 +15246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -14926,7 +15526,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Z:\FSO Advisory All\2. FSO Advisory _ Solutions\3. Risk\2. Data Quality\1. Conceptual\[DataQuality_Testing_Conceptual.xlsb]Lists'!#REF!</xm:f>
           </x14:formula1>
@@ -14944,6 +15544,146 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15288,146 +16028,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
@@ -15437,6 +16037,42 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15456,40 +16092,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2966CE-FBFB-42D6-8AF5-4361359F35A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IRB models/Data Model.xlsx
+++ b/IRB models/Data Model.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="631">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -2009,15 +2009,6 @@
     <t>PD_N</t>
   </si>
   <si>
-    <t>M_ex_ORFS</t>
-  </si>
-  <si>
-    <t>M_ex_TR</t>
-  </si>
-  <si>
-    <t>M_ex_EPD</t>
-  </si>
-  <si>
     <t>workbook: LEICode_PD_ModelID_EndOfObservationPeriod_versionNumber.xlsx
 sheet: 2.0      cell: E6</t>
   </si>
@@ -2096,6 +2087,12 @@
   </si>
   <si>
     <t>Section 2.3(f)</t>
+  </si>
+  <si>
+    <t>PD_M_ex_TR</t>
+  </si>
+  <si>
+    <t>PD_M_ex_EPD</t>
   </si>
 </sst>
 </file>
@@ -3061,6 +3058,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3109,8 +3108,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10858,8 +10855,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10994,502 +10991,502 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>631</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E14" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F14" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="57" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C15" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="D22" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>618</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F8" s="58" t="s">
+      <c r="C23" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>607</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F9" s="58" t="s">
+      <c r="C24" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="57" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F10" s="58" t="s">
+      <c r="C25" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="58" t="s">
+      <c r="C26" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>608</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>625</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>603</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>629</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>604</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>630</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>602</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>609</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>606</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>610</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>621</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>618</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>622</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>607</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>611</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>624</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>608</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>613</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>603</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>614</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
@@ -15265,74 +15262,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
@@ -15392,12 +15389,12 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -15539,11 +15536,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -15593,97 +15585,12 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="33ef62f9-2e07-484b-bd79-00aec90129fe" ContentTypeId="0x010100826318CDA76982469C2C3CD2CD5847410101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
-        </TermInfo>
-      </Terms>
-    </jc981bd8ab5b47fd91abb7684c0f405b>
-    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
-        </TermInfo>
-      </Terms>
-    </i14ea8bbd518495ea0e20ac1ad18c527>
-    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b4187e12891e46deb4d240a4b28bdb90>
-    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Value>13</Value>
-      <Value>12</Value>
-      <Value>11</Value>
-    </TaxCatchAll>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e0e024ccac5240e69ae9c38a41bfa7a5>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
-    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
-        </TermInfo>
-      </Terms>
-    </k8128b1c45734e36a24fce652bc7ffb7>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
-      <Description>3KSVPJYEA2AR-1011915566-26</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
-      <UserInfo>
-        <DisplayName>Diego De Plaen</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Antonio Millan Puebla</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sander Vandevenne</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="EY Collaboration Document" ma:contentTypeID="0x010100826318CDA76982469C2C3CD2CD58474101010039A9718220E30744AB05D9570037D8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0a3d079c8d19385a693d7ea59f238e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="50c908b1-f277-4340-90a9-4611d0b0f078" xmlns:ns4="35818088-e62d-4edf-bbb6-409430aef268" xmlns:ns5="40c6704c-f77c-4b8a-96a1-a10a2e12c42b" xmlns:ns6="96860b88-8044-411d-9267-72f1d28f5ec3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0684eb5fe437c3d422fbfa93671a941" ns1:_="" ns2:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16028,7 +15935,105 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <jc981bd8ab5b47fd91abb7684c0f405b xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brussels</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0086b60c-6752-48fa-8e91-a8805d8608ed</TermId>
+        </TermInfo>
+      </Terms>
+    </jc981bd8ab5b47fd91abb7684c0f405b>
+    <i14ea8bbd518495ea0e20ac1ad18c527 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Campaign Materials</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10e3cb14-f0bd-4a0a-bb1a-58c7e26fd5e4</TermId>
+        </TermInfo>
+      </Terms>
+    </i14ea8bbd518495ea0e20ac1ad18c527>
+    <b4187e12891e46deb4d240a4b28bdb90 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b4187e12891e46deb4d240a4b28bdb90>
+    <TaxCatchAll xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Value>13</Value>
+      <Value>12</Value>
+      <Value>11</Value>
+    </TaxCatchAll>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e0e024ccac5240e69ae9c38a41bfa7a5 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e0e024ccac5240e69ae9c38a41bfa7a5>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <Classification_x0020_Status xmlns="35818088-e62d-4edf-bbb6-409430aef268" xsi:nil="true"/>
+    <k8128b1c45734e36a24fce652bc7ffb7 xmlns="50c908b1-f277-4340-90a9-4611d0b0f078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Quantitative Services</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8ac922a9-ccce-4035-83d6-3ab1113bed22</TermId>
+        </TermInfo>
+      </Terms>
+    </k8128b1c45734e36a24fce652bc7ffb7>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <_dlc_DocId xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">3KSVPJYEA2AR-1011915566-26</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <Url>https://sites.ey.com/sites/QAS_BELGIUM/_layouts/15/DocIdRedir.aspx?ID=3KSVPJYEA2AR-1011915566-26</Url>
+      <Description>3KSVPJYEA2AR-1011915566-26</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="40c6704c-f77c-4b8a-96a1-a10a2e12c42b">
+      <UserInfo>
+        <DisplayName>Diego De Plaen</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Antonio Millan Puebla</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sander Vandevenne</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AB6DE9-C584-4E87-8FF5-1A82C035629B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -16036,18 +16041,24 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E10CC5-2433-4DC9-9A6B-251C7485D767}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
+    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
+    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
+    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16073,23 +16084,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D0B982-DBCA-4EED-A652-6CD257CDA216}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D6130A-D52D-416E-88B9-F6885590E854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="50c908b1-f277-4340-90a9-4611d0b0f078"/>
-    <ds:schemaRef ds:uri="35818088-e62d-4edf-bbb6-409430aef268"/>
-    <ds:schemaRef ds:uri="40c6704c-f77c-4b8a-96a1-a10a2e12c42b"/>
-    <ds:schemaRef ds:uri="96860b88-8044-411d-9267-72f1d28f5ec3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>